--- a/11_Модуль/11.1 Дата и время (исходные данные)_МОЙ.xlsx
+++ b/11_Модуль/11.1 Дата и время (исходные данные)_МОЙ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\УЧЁБА\EXCEL\Excel\11_Модуль\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAE97BC6-0C2D-4233-89F1-33849FE522D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E41C87F-C9B8-4FF3-B8C3-B2F97EEA938B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Текущая дата и форматы" sheetId="1" r:id="rId1"/>
@@ -28,8 +28,8 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="12" r:id="rId13"/>
-    <pivotCache cacheId="17" r:id="rId14"/>
+    <pivotCache cacheId="0" r:id="rId13"/>
+    <pivotCache cacheId="1" r:id="rId14"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -73,6 +73,55 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Пользователь Windows</author>
+  </authors>
+  <commentList>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{36613E65-474D-4FB3-AFFC-B705B9D7EBF2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Праздничные дни</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Пользователь Windows</author>
+  </authors>
+  <commentList>
+    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{0578AA5C-889A-4133-BDF9-AD01D58CD53B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>План на 1 рабочий день.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1731" uniqueCount="234">
   <si>
@@ -706,9 +755,6 @@
     <t>Месяцев с дня рождения</t>
   </si>
   <si>
-    <t>Через N рабочих дней</t>
-  </si>
-  <si>
     <t>Прошло рабочих дней с начала года</t>
   </si>
   <si>
@@ -780,6 +826,9 @@
   </si>
   <si>
     <t>ТекДеньНедели</t>
+  </si>
+  <si>
+    <t>Через N рабочих дней/с учетом праздиков</t>
   </si>
 </sst>
 </file>
@@ -791,9 +840,9 @@
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
-    <numFmt numFmtId="169" formatCode="dddd"/>
+    <numFmt numFmtId="167" formatCode="dddd"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -841,6 +890,14 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -886,7 +943,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -930,7 +987,6 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -950,11 +1006,10 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -974,14 +1029,7 @@
     <cellStyle name="Финансовый" xfId="1" builtinId="3"/>
     <cellStyle name="Хороший" xfId="3" builtinId="26"/>
   </cellStyles>
-  <dxfs count="36">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="17">
     <dxf>
       <font>
         <b/>
@@ -1001,62 +1049,13 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
@@ -1067,65 +1066,14 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="175" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="174" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="173" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="172" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="171" formatCode="0.0000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.00000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="175" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="174" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="173" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="172" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="171" formatCode="0.0000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.00000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="dddd"/>
+      <numFmt numFmtId="167" formatCode="dddd"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
@@ -1138,6 +1086,12 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1306,7 +1260,7 @@
     <cacheField name="Дата" numFmtId="14">
       <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2020-01-02T00:00:00" maxDate="2020-12-13T00:00:00"/>
     </cacheField>
-    <cacheField name="День недели" numFmtId="169">
+    <cacheField name="День недели" numFmtId="167">
       <sharedItems count="7">
         <s v="понедельник"/>
         <s v="среда"/>
@@ -3531,7 +3485,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1417EDA6-C63D-4BB5-80F8-9E5ECD9C364C}" name="Сводная таблица1" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Номер недели">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1417EDA6-C63D-4BB5-80F8-9E5ECD9C364C}" name="Сводная таблица1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Номер недели">
   <location ref="A3:B26" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField dataField="1" showAll="0">
@@ -3731,7 +3685,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8EF73134-3D3D-4B02-A21C-4CD2FB45D910}" name="Сводная таблица2" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8EF73134-3D3D-4B02-A21C-4CD2FB45D910}" name="Сводная таблица2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField showAll="0"/>
@@ -3791,14 +3745,14 @@
     <dataField name="Среднее по полю Кол-во часов" fld="7" subtotal="average" baseField="3" baseItem="2"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="19">
+    <format dxfId="3">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="12">
+    <format dxfId="2">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -3815,45 +3769,45 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FF36B168-416F-45AB-BC75-D138E6F84118}" name="Таблица3" displayName="Таблица3" ref="A1:K29" totalsRowShown="0" headerRowDxfId="35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FF36B168-416F-45AB-BC75-D138E6F84118}" name="Таблица3" displayName="Таблица3" ref="A1:K29" totalsRowShown="0" headerRowDxfId="16">
   <autoFilter ref="A1:K29" xr:uid="{A25A7744-19F6-4FB0-B3AC-2475B09504E1}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{0AECE3BA-9985-4730-8DE0-961F8AB75110}" name="Менеджер"/>
-    <tableColumn id="2" xr3:uid="{DAA92CE1-2B6F-4FC4-845F-0EFBBE0B77E6}" name="Дата первой встречи" dataDxfId="29"/>
-    <tableColumn id="12" xr3:uid="{BB1B9974-8FD2-4B0B-9719-137FB5D46717}" name="Неделя" dataDxfId="28">
+    <tableColumn id="2" xr3:uid="{DAA92CE1-2B6F-4FC4-845F-0EFBBE0B77E6}" name="Дата первой встречи" dataDxfId="15"/>
+    <tableColumn id="12" xr3:uid="{BB1B9974-8FD2-4B0B-9719-137FB5D46717}" name="Неделя" dataDxfId="14">
       <calculatedColumnFormula>WEEKNUM(Таблица3[[#This Row],[Дата первой встречи]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{F15ADCA8-5C1D-4ED0-AF51-BEB1E5D153BE}" name="Компания-клиент"/>
     <tableColumn id="4" xr3:uid="{7A1C10C8-633B-4C01-9FEB-7BD5EC7974E1}" name="Продукт"/>
     <tableColumn id="5" xr3:uid="{47EDADFB-7CC0-46B5-A379-F23E1D87D30B}" name="Канал"/>
-    <tableColumn id="6" xr3:uid="{09E2C6BF-1612-45C8-9E3B-801E8014E895}" name="Коммерческое предложение" dataDxfId="34" dataCellStyle="Финансовый"/>
+    <tableColumn id="6" xr3:uid="{09E2C6BF-1612-45C8-9E3B-801E8014E895}" name="Коммерческое предложение" dataDxfId="13" dataCellStyle="Финансовый"/>
     <tableColumn id="7" xr3:uid="{5662F1AE-123B-4E1B-BA09-0E6D6A98E5DF}" name="Статус сделки"/>
-    <tableColumn id="8" xr3:uid="{71A978F6-CE3B-46BA-8BA7-1D03EFC483B5}" name="Факт оплаты" dataDxfId="33" dataCellStyle="Финансовый"/>
-    <tableColumn id="9" xr3:uid="{3B15305D-C322-48D2-9B8F-6EE4273FE061}" name="Дата оплаты" dataDxfId="32" dataCellStyle="Финансовый"/>
-    <tableColumn id="10" xr3:uid="{CA69BD93-2230-47DD-AC74-85E9ABCEBCC9}" name="Комиссия" dataDxfId="31" dataCellStyle="Финансовый"/>
+    <tableColumn id="8" xr3:uid="{71A978F6-CE3B-46BA-8BA7-1D03EFC483B5}" name="Факт оплаты" dataDxfId="12" dataCellStyle="Финансовый"/>
+    <tableColumn id="9" xr3:uid="{3B15305D-C322-48D2-9B8F-6EE4273FE061}" name="Дата оплаты" dataDxfId="11" dataCellStyle="Финансовый"/>
+    <tableColumn id="10" xr3:uid="{CA69BD93-2230-47DD-AC74-85E9ABCEBCC9}" name="Комиссия" dataDxfId="10" dataCellStyle="Финансовый"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{14B0F5F1-F0A6-4486-8210-80B9F37D1208}" name="Таблица4" displayName="Таблица4" ref="A1:I166" totalsRowShown="0" headerRowDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{14B0F5F1-F0A6-4486-8210-80B9F37D1208}" name="Таблица4" displayName="Таблица4" ref="A1:I166" totalsRowShown="0" headerRowDxfId="9">
   <autoFilter ref="A1:I166" xr:uid="{E8C8A3B9-B8A1-4728-AE42-E9CF8853520C}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{DD53AAA7-B2C0-436E-8DDF-84D610016604}" name="Фамилия"/>
     <tableColumn id="2" xr3:uid="{7A26BEFD-C308-46FA-91EA-87E52B2EB046}" name="Роль"/>
-    <tableColumn id="3" xr3:uid="{C30CE1F3-BDBA-4B26-B078-102C18EA43B3}" name="Дата" dataDxfId="27"/>
-    <tableColumn id="8" xr3:uid="{7A9DA5A3-97BC-411F-9B7A-152A865964E2}" name="День недели" dataDxfId="25">
+    <tableColumn id="3" xr3:uid="{C30CE1F3-BDBA-4B26-B078-102C18EA43B3}" name="Дата" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{7A9DA5A3-97BC-411F-9B7A-152A865964E2}" name="День недели" dataDxfId="7">
       <calculatedColumnFormula>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{B7EDF511-353C-4FAA-87F8-6D59A807A095}" name="День недели_x000a_(число)" dataDxfId="10">
+    <tableColumn id="9" xr3:uid="{B7EDF511-353C-4FAA-87F8-6D59A807A095}" name="День недели_x000a_(число)" dataDxfId="6">
       <calculatedColumnFormula>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{3D821467-D463-4BC1-AFE2-F6F589FBEBE8}" name="Квартал" dataDxfId="9">
+    <tableColumn id="7" xr3:uid="{3D821467-D463-4BC1-AFE2-F6F589FBEBE8}" name="Квартал" dataDxfId="5">
       <calculatedColumnFormula>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{FC58BE6B-F32A-40E0-8AB2-8E9F250CE2AF}" name="Проект"/>
-    <tableColumn id="5" xr3:uid="{3BF24B66-DF12-466E-B1E3-AE23FCF3A842}" name="Кол-во часов" dataDxfId="30"/>
+    <tableColumn id="5" xr3:uid="{3BF24B66-DF12-466E-B1E3-AE23FCF3A842}" name="Кол-во часов" dataDxfId="4"/>
     <tableColumn id="6" xr3:uid="{F1BB4C77-0287-48BB-A7E1-5E7F3FBFE14F}" name="Стоимость"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -4145,11 +4099,11 @@
       </c>
       <c r="B1" s="2">
         <f ca="1">TODAY()</f>
-        <v>45267</v>
+        <v>45268</v>
       </c>
       <c r="C1" s="22">
         <f ca="1">TODAY()</f>
-        <v>45267</v>
+        <v>45268</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -4158,11 +4112,11 @@
       </c>
       <c r="B2" s="21">
         <f ca="1">NOW()</f>
-        <v>45267.733873263889</v>
+        <v>45268.745235416667</v>
       </c>
       <c r="C2" s="22">
         <f ca="1">NOW()</f>
-        <v>45267.733873263889</v>
+        <v>45268.745235416667</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -4171,7 +4125,7 @@
       </c>
       <c r="B4" s="2">
         <f ca="1">TODAY()+1</f>
-        <v>45268</v>
+        <v>45269</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -4180,7 +4134,7 @@
       </c>
       <c r="B5" s="2">
         <f ca="1">B1-1</f>
-        <v>45266</v>
+        <v>45267</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -4189,7 +4143,7 @@
       </c>
       <c r="B6" s="2">
         <f ca="1">TODAY()+7</f>
-        <v>45274</v>
+        <v>45275</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -4215,7 +4169,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6E1CF5A-FC8E-45B8-B108-43D5C25A56E3}">
   <dimension ref="A1:A366"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
@@ -6057,11 +6011,11 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A366">
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>NOT(OR(WEEKDAY(A1,2)=6,(WEEKDAY(A1,2)=7)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>OR(WEEKDAY(A1,2)=6,(WEEKDAY(A1,2)=7))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="1">
-      <formula>NOT(OR(WEEKDAY(A1,2)=6,(WEEKDAY(A1,2)=7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6070,140 +6024,175 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FEC201C-C1A2-4812-BCE9-6863207F17D9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FEC201C-C1A2-4812-BCE9-6863207F17D9}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.109375" customWidth="1"/>
     <col min="3" max="3" width="19.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B1" s="2">
+        <f ca="1">WORKDAY(TODAY(),30)</f>
+        <v>45310</v>
+      </c>
+      <c r="C1" s="2">
+        <f ca="1">WORKDAY(TODAY(),30,F1:F8)</f>
+        <v>45320</v>
+      </c>
+      <c r="F1" s="2">
+        <v>45292</v>
+      </c>
+      <c r="G1" s="2">
+        <v>45292</v>
+      </c>
+      <c r="H1" s="2">
+        <v>44927</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F2" s="2">
+        <v>45293</v>
+      </c>
+      <c r="G2" s="2">
+        <v>45293</v>
+      </c>
+      <c r="H2" s="2">
+        <v>44928</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>210</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="F1" s="2">
-        <v>44197</v>
-      </c>
-      <c r="G1" s="2">
-        <v>43831</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F2" s="2">
-        <v>44198</v>
-      </c>
-      <c r="G2" s="2">
-        <v>43832</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>211</v>
+      <c r="B3">
+        <f ca="1">NETWORKDAYS("01.01.2023",TODAY(),H1:H10)</f>
+        <v>238</v>
       </c>
       <c r="F3" s="2">
-        <v>44199</v>
+        <v>45294</v>
       </c>
       <c r="G3" s="2">
-        <v>43833</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45294</v>
+      </c>
+      <c r="H3" s="2">
+        <v>44929</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F4" s="2">
-        <v>44200</v>
+        <v>45295</v>
       </c>
       <c r="G4" s="2">
-        <v>43834</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45295</v>
+      </c>
+      <c r="H4" s="2">
+        <v>44930</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F5" s="2">
-        <v>44201</v>
+        <v>45296</v>
       </c>
       <c r="G5" s="2">
-        <v>43835</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45296</v>
+      </c>
+      <c r="H5" s="2">
+        <v>44931</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F6" s="2">
-        <v>44202</v>
+        <v>45297</v>
       </c>
       <c r="G6" s="2">
-        <v>43836</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45297</v>
+      </c>
+      <c r="H6" s="2">
+        <v>44932</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F7" s="2">
-        <v>44203</v>
+        <v>45298</v>
       </c>
       <c r="G7" s="2">
-        <v>43837</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45298</v>
+      </c>
+      <c r="H7" s="2">
+        <v>44933</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F8" s="2">
-        <v>44204</v>
+        <v>45299</v>
       </c>
       <c r="G8" s="2">
-        <v>43838</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F9" s="2">
-        <v>44205</v>
-      </c>
+        <v>45299</v>
+      </c>
+      <c r="H8" s="2">
+        <v>44934</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F9" s="2"/>
       <c r="G9" s="2">
-        <v>43839</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F10" s="2">
-        <v>44206</v>
-      </c>
+        <v>45345</v>
+      </c>
+      <c r="H9" s="2">
+        <v>44981</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F10" s="2"/>
       <c r="G10" s="2">
-        <v>43840</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45359</v>
+      </c>
+      <c r="H10" s="2">
+        <v>44994</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F11" s="2"/>
-      <c r="G11" s="2">
-        <v>43899</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G12" s="2">
-        <v>43885</v>
-      </c>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G12" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA03B51E-4BFF-4DC2-8D60-2A4DC4330296}">
-  <dimension ref="A1:H3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA03B51E-4BFF-4DC2-8D60-2A4DC4330296}">
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24.109375" customWidth="1"/>
-    <col min="2" max="2" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="24.109375" customWidth="1"/>
     <col min="5" max="5" width="14.21875" customWidth="1"/>
     <col min="6" max="6" width="17.88671875" customWidth="1"/>
@@ -6234,25 +6223,71 @@
       <c r="A2" s="3">
         <v>15500000</v>
       </c>
-      <c r="B2" s="1"/>
+      <c r="B2" s="1">
+        <f ca="1">NETWORKDAYS("09.01.2023",TODAY(),F2:F8)*B4</f>
+        <v>14566265.060240963</v>
+      </c>
       <c r="C2" s="1">
-        <v>14534242.3333333</v>
-      </c>
-      <c r="D2" s="1"/>
+        <v>14634242.3333333</v>
+      </c>
+      <c r="D2" s="1">
+        <f ca="1">C2-B2</f>
+        <v>67977.273092336953</v>
+      </c>
       <c r="F2" s="2">
-        <v>43899</v>
-      </c>
-      <c r="H2" s="20"/>
+        <v>44993</v>
+      </c>
+      <c r="H2" s="20">
+        <f ca="1">YEARFRAC("09.01.2023",TODAY())</f>
+        <v>0.91388888888888886</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="1"/>
+      <c r="B3" s="1" t="str">
+        <f>"Всего рабочих дней в 2023 году = "&amp;NETWORKDAYS("09.01.2023","31.12.2023",F2:F8)</f>
+        <v>Всего рабочих дней в 2023 году = 249</v>
+      </c>
+      <c r="D3" t="str">
+        <f ca="1">"Идем с опережением = "&amp;ROUND((C2-B2)/B4,0)</f>
+        <v>Идем с опережением = 1</v>
+      </c>
       <c r="F3" s="2">
-        <v>43885</v>
+        <v>44980</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="3">
+        <f>A2/NETWORKDAYS("09.01.2023","31.12.2023",F2:F8)</f>
+        <v>62248.99598393574</v>
+      </c>
+      <c r="F4" s="2">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F5" s="2">
+        <v>45055</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F6" s="2">
+        <v>45056</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F7" s="2">
+        <v>45089</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F8" s="2">
+        <v>45234</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -6262,7 +6297,7 @@
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6283,10 +6318,10 @@
       <c r="B1" t="s">
         <v>167</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="24" t="s">
         <v>168</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="25" t="s">
         <v>168</v>
       </c>
       <c r="E1" t="s">
@@ -10104,7 +10139,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10174,7 +10209,7 @@
         <f>B2+1/24/4</f>
         <v>0.36458333333333337</v>
       </c>
-      <c r="C3" s="24">
+      <c r="C3" s="23">
         <f>C2+$D$1</f>
         <v>0.375</v>
       </c>
@@ -10199,7 +10234,7 @@
         <f t="shared" ref="B4:B7" si="2">B3+1/24/4</f>
         <v>0.37500000000000006</v>
       </c>
-      <c r="C4" s="24">
+      <c r="C4" s="23">
         <f t="shared" ref="C4:C7" si="3">C3+$D$1</f>
         <v>0.39583333333333331</v>
       </c>
@@ -10224,7 +10259,7 @@
         <f t="shared" si="2"/>
         <v>0.38541666666666674</v>
       </c>
-      <c r="C5" s="24">
+      <c r="C5" s="23">
         <f t="shared" si="3"/>
         <v>0.41666666666666663</v>
       </c>
@@ -10249,7 +10284,7 @@
         <f t="shared" si="2"/>
         <v>0.39583333333333343</v>
       </c>
-      <c r="C6" s="24">
+      <c r="C6" s="23">
         <f t="shared" si="3"/>
         <v>0.43749999999999994</v>
       </c>
@@ -10274,7 +10309,7 @@
         <f t="shared" si="2"/>
         <v>0.40625000000000011</v>
       </c>
-      <c r="C7" s="24">
+      <c r="C7" s="23">
         <f t="shared" si="3"/>
         <v>0.45833333333333326</v>
       </c>
@@ -10311,7 +10346,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
+      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10326,7 +10361,7 @@
     <col min="8" max="8" width="23.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>47</v>
       </c>
@@ -10336,14 +10371,14 @@
       <c r="C1" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="E1" s="26" t="s">
         <v>213</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="F1" s="26" t="s">
         <v>214</v>
-      </c>
-      <c r="F1" s="27" t="s">
-        <v>215</v>
       </c>
       <c r="G1" s="15" t="s">
         <v>208</v>
@@ -10362,9 +10397,9 @@
       <c r="C2" s="16">
         <v>31011</v>
       </c>
-      <c r="D2" s="25">
+      <c r="D2" s="24">
         <f ca="1">DATEDIF(C2,TODAY(),"D")</f>
-        <v>14256</v>
+        <v>14257</v>
       </c>
       <c r="E2">
         <f ca="1">DATEDIF(C2,TODAY(),"Y")</f>
@@ -10376,7 +10411,7 @@
       </c>
       <c r="G2">
         <f ca="1">DATEDIF(C2,TODAY(),"YD")</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H2">
         <f ca="1">DATEDIF(C2,TODAY(),"YM")</f>
@@ -10395,7 +10430,7 @@
       </c>
       <c r="D3">
         <f ca="1">DATEDIF(C3,TODAY(),"D")</f>
-        <v>18129</v>
+        <v>18130</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E66" ca="1" si="0">DATEDIF(C3,TODAY(),"Y")</f>
@@ -10407,7 +10442,7 @@
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G66" ca="1" si="2">DATEDIF(C3,TODAY(),"YD")</f>
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H66" ca="1" si="3">DATEDIF(C3,TODAY(),"YM")</f>
@@ -10424,9 +10459,9 @@
       <c r="C4" s="16">
         <v>24057</v>
       </c>
-      <c r="D4" s="28">
+      <c r="D4" s="27">
         <f t="shared" ref="D4:D67" ca="1" si="4">TODAY()-C4</f>
-        <v>21210</v>
+        <v>21211</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
@@ -10438,7 +10473,7 @@
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="2"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="3"/>
@@ -10457,7 +10492,7 @@
       </c>
       <c r="D5" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>20600</v>
+        <v>20601</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
@@ -10469,7 +10504,7 @@
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="2"/>
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="3"/>
@@ -10488,7 +10523,7 @@
       </c>
       <c r="D6" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>15722</v>
+        <v>15723</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
@@ -10500,7 +10535,7 @@
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="2"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="3"/>
@@ -10519,7 +10554,7 @@
       </c>
       <c r="D7" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>20820</v>
+        <v>20821</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
@@ -10531,7 +10566,7 @@
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="3"/>
@@ -10550,7 +10585,7 @@
       </c>
       <c r="D8" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>12767</v>
+        <v>12768</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
@@ -10562,7 +10597,7 @@
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="2"/>
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="3"/>
@@ -10581,7 +10616,7 @@
       </c>
       <c r="D9" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>14921</v>
+        <v>14922</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
@@ -10593,7 +10628,7 @@
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="2"/>
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="3"/>
@@ -10612,7 +10647,7 @@
       </c>
       <c r="D10" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>16302</v>
+        <v>16303</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
@@ -10624,7 +10659,7 @@
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="2"/>
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="3"/>
@@ -10643,7 +10678,7 @@
       </c>
       <c r="D11" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>18988</v>
+        <v>18989</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
@@ -10655,7 +10690,7 @@
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="2"/>
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="3"/>
@@ -10674,7 +10709,7 @@
       </c>
       <c r="D12" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>21866</v>
+        <v>21867</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
@@ -10686,7 +10721,7 @@
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="2"/>
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="3"/>
@@ -10705,7 +10740,7 @@
       </c>
       <c r="D13" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>14584</v>
+        <v>14585</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
@@ -10717,7 +10752,7 @@
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="2"/>
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="3"/>
@@ -10736,7 +10771,7 @@
       </c>
       <c r="D14" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>11634</v>
+        <v>11635</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
@@ -10748,7 +10783,7 @@
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="2"/>
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="3"/>
@@ -10767,7 +10802,7 @@
       </c>
       <c r="D15" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>12600</v>
+        <v>12601</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
@@ -10775,15 +10810,15 @@
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="1"/>
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="2"/>
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -10798,7 +10833,7 @@
       </c>
       <c r="D16" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>15300</v>
+        <v>15301</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
@@ -10810,7 +10845,7 @@
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="2"/>
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="3"/>
@@ -10829,7 +10864,7 @@
       </c>
       <c r="D17" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>13730</v>
+        <v>13731</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="0"/>
@@ -10841,7 +10876,7 @@
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="2"/>
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="3"/>
@@ -10860,7 +10895,7 @@
       </c>
       <c r="D18" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>13475</v>
+        <v>13476</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="0"/>
@@ -10872,7 +10907,7 @@
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="2"/>
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="3"/>
@@ -10891,7 +10926,7 @@
       </c>
       <c r="D19" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>16493</v>
+        <v>16494</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="0"/>
@@ -10903,7 +10938,7 @@
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="2"/>
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="3"/>
@@ -10922,7 +10957,7 @@
       </c>
       <c r="D20" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>11271</v>
+        <v>11272</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="0"/>
@@ -10934,7 +10969,7 @@
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="2"/>
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="3"/>
@@ -10953,7 +10988,7 @@
       </c>
       <c r="D21" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>21354</v>
+        <v>21355</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="0"/>
@@ -10965,7 +11000,7 @@
       </c>
       <c r="G21">
         <f t="shared" ca="1" si="2"/>
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H21">
         <f t="shared" ca="1" si="3"/>
@@ -10984,7 +11019,7 @@
       </c>
       <c r="D22" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>12794</v>
+        <v>12795</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="0"/>
@@ -10996,7 +11031,7 @@
       </c>
       <c r="G22">
         <f t="shared" ca="1" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H22">
         <f t="shared" ca="1" si="3"/>
@@ -11015,7 +11050,7 @@
       </c>
       <c r="D23" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>22918</v>
+        <v>22919</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="0"/>
@@ -11027,7 +11062,7 @@
       </c>
       <c r="G23">
         <f t="shared" ca="1" si="2"/>
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H23">
         <f t="shared" ca="1" si="3"/>
@@ -11046,7 +11081,7 @@
       </c>
       <c r="D24" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>21497</v>
+        <v>21498</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="0"/>
@@ -11058,7 +11093,7 @@
       </c>
       <c r="G24">
         <f t="shared" ca="1" si="2"/>
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H24">
         <f t="shared" ca="1" si="3"/>
@@ -11077,7 +11112,7 @@
       </c>
       <c r="D25" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>22742</v>
+        <v>22743</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="0"/>
@@ -11089,7 +11124,7 @@
       </c>
       <c r="G25">
         <f t="shared" ca="1" si="2"/>
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H25">
         <f t="shared" ca="1" si="3"/>
@@ -11108,7 +11143,7 @@
       </c>
       <c r="D26" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>10947</v>
+        <v>10948</v>
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="0"/>
@@ -11120,7 +11155,7 @@
       </c>
       <c r="G26">
         <f t="shared" ca="1" si="2"/>
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H26">
         <f t="shared" ca="1" si="3"/>
@@ -11139,7 +11174,7 @@
       </c>
       <c r="D27" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>13002</v>
+        <v>13003</v>
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="0"/>
@@ -11151,7 +11186,7 @@
       </c>
       <c r="G27">
         <f t="shared" ca="1" si="2"/>
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H27">
         <f t="shared" ca="1" si="3"/>
@@ -11170,7 +11205,7 @@
       </c>
       <c r="D28" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>12879</v>
+        <v>12880</v>
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="0"/>
@@ -11182,7 +11217,7 @@
       </c>
       <c r="G28">
         <f t="shared" ca="1" si="2"/>
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H28">
         <f t="shared" ca="1" si="3"/>
@@ -11201,7 +11236,7 @@
       </c>
       <c r="D29" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>21084</v>
+        <v>21085</v>
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="0"/>
@@ -11213,7 +11248,7 @@
       </c>
       <c r="G29">
         <f t="shared" ca="1" si="2"/>
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H29">
         <f t="shared" ca="1" si="3"/>
@@ -11232,7 +11267,7 @@
       </c>
       <c r="D30" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>19963</v>
+        <v>19964</v>
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="0"/>
@@ -11244,7 +11279,7 @@
       </c>
       <c r="G30">
         <f t="shared" ca="1" si="2"/>
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H30">
         <f t="shared" ca="1" si="3"/>
@@ -11263,7 +11298,7 @@
       </c>
       <c r="D31" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>11140</v>
+        <v>11141</v>
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="0"/>
@@ -11275,7 +11310,7 @@
       </c>
       <c r="G31">
         <f t="shared" ca="1" si="2"/>
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H31">
         <f t="shared" ca="1" si="3"/>
@@ -11294,7 +11329,7 @@
       </c>
       <c r="D32" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>12925</v>
+        <v>12926</v>
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="0"/>
@@ -11306,7 +11341,7 @@
       </c>
       <c r="G32">
         <f t="shared" ca="1" si="2"/>
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H32">
         <f t="shared" ca="1" si="3"/>
@@ -11325,7 +11360,7 @@
       </c>
       <c r="D33" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>14439</v>
+        <v>14440</v>
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="0"/>
@@ -11337,7 +11372,7 @@
       </c>
       <c r="G33">
         <f t="shared" ca="1" si="2"/>
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H33">
         <f t="shared" ca="1" si="3"/>
@@ -11356,7 +11391,7 @@
       </c>
       <c r="D34" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>19072</v>
+        <v>19073</v>
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="0"/>
@@ -11368,7 +11403,7 @@
       </c>
       <c r="G34">
         <f t="shared" ca="1" si="2"/>
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H34">
         <f t="shared" ca="1" si="3"/>
@@ -11387,7 +11422,7 @@
       </c>
       <c r="D35" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>10782</v>
+        <v>10783</v>
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="0"/>
@@ -11399,7 +11434,7 @@
       </c>
       <c r="G35">
         <f t="shared" ca="1" si="2"/>
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H35">
         <f t="shared" ca="1" si="3"/>
@@ -11418,7 +11453,7 @@
       </c>
       <c r="D36" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>10682</v>
+        <v>10683</v>
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="0"/>
@@ -11426,15 +11461,15 @@
       </c>
       <c r="F36">
         <f t="shared" ca="1" si="1"/>
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="G36">
         <f t="shared" ca="1" si="2"/>
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H36">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
@@ -11449,7 +11484,7 @@
       </c>
       <c r="D37" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>15892</v>
+        <v>15893</v>
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="0"/>
@@ -11461,7 +11496,7 @@
       </c>
       <c r="G37">
         <f t="shared" ca="1" si="2"/>
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H37">
         <f t="shared" ca="1" si="3"/>
@@ -11480,7 +11515,7 @@
       </c>
       <c r="D38" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>22701</v>
+        <v>22702</v>
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="0"/>
@@ -11492,7 +11527,7 @@
       </c>
       <c r="G38">
         <f t="shared" ca="1" si="2"/>
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H38">
         <f t="shared" ca="1" si="3"/>
@@ -11511,7 +11546,7 @@
       </c>
       <c r="D39" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>23131</v>
+        <v>23132</v>
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="0"/>
@@ -11519,15 +11554,15 @@
       </c>
       <c r="F39">
         <f t="shared" ca="1" si="1"/>
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="G39">
         <f t="shared" ca="1" si="2"/>
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H39">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
@@ -11542,7 +11577,7 @@
       </c>
       <c r="D40" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>18617</v>
+        <v>18618</v>
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="0"/>
@@ -11554,7 +11589,7 @@
       </c>
       <c r="G40">
         <f t="shared" ca="1" si="2"/>
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H40">
         <f t="shared" ca="1" si="3"/>
@@ -11573,7 +11608,7 @@
       </c>
       <c r="D41" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>12857</v>
+        <v>12858</v>
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="0"/>
@@ -11585,7 +11620,7 @@
       </c>
       <c r="G41">
         <f t="shared" ca="1" si="2"/>
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H41">
         <f t="shared" ca="1" si="3"/>
@@ -11604,7 +11639,7 @@
       </c>
       <c r="D42" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>19843</v>
+        <v>19844</v>
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="0"/>
@@ -11616,7 +11651,7 @@
       </c>
       <c r="G42">
         <f t="shared" ca="1" si="2"/>
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H42">
         <f t="shared" ca="1" si="3"/>
@@ -11635,7 +11670,7 @@
       </c>
       <c r="D43" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>13979</v>
+        <v>13980</v>
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="0"/>
@@ -11647,7 +11682,7 @@
       </c>
       <c r="G43">
         <f t="shared" ca="1" si="2"/>
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H43">
         <f t="shared" ca="1" si="3"/>
@@ -11666,7 +11701,7 @@
       </c>
       <c r="D44" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>22946</v>
+        <v>22947</v>
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="0"/>
@@ -11678,7 +11713,7 @@
       </c>
       <c r="G44">
         <f t="shared" ca="1" si="2"/>
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H44">
         <f t="shared" ca="1" si="3"/>
@@ -11697,7 +11732,7 @@
       </c>
       <c r="D45" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>12735</v>
+        <v>12736</v>
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="0"/>
@@ -11709,7 +11744,7 @@
       </c>
       <c r="G45">
         <f t="shared" ca="1" si="2"/>
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H45">
         <f t="shared" ca="1" si="3"/>
@@ -11728,7 +11763,7 @@
       </c>
       <c r="D46" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>10605</v>
+        <v>10606</v>
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="0"/>
@@ -11740,7 +11775,7 @@
       </c>
       <c r="G46">
         <f t="shared" ca="1" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H46">
         <f t="shared" ca="1" si="3"/>
@@ -11759,7 +11794,7 @@
       </c>
       <c r="D47" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>20999</v>
+        <v>21000</v>
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="0"/>
@@ -11771,7 +11806,7 @@
       </c>
       <c r="G47">
         <f t="shared" ca="1" si="2"/>
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H47">
         <f t="shared" ca="1" si="3"/>
@@ -11790,7 +11825,7 @@
       </c>
       <c r="D48" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>22068</v>
+        <v>22069</v>
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="0"/>
@@ -11802,7 +11837,7 @@
       </c>
       <c r="G48">
         <f t="shared" ca="1" si="2"/>
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H48">
         <f t="shared" ca="1" si="3"/>
@@ -11821,7 +11856,7 @@
       </c>
       <c r="D49" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>14872</v>
+        <v>14873</v>
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="0"/>
@@ -11833,7 +11868,7 @@
       </c>
       <c r="G49">
         <f t="shared" ca="1" si="2"/>
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H49">
         <f t="shared" ca="1" si="3"/>
@@ -11852,7 +11887,7 @@
       </c>
       <c r="D50" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>12990</v>
+        <v>12991</v>
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="0"/>
@@ -11864,7 +11899,7 @@
       </c>
       <c r="G50">
         <f t="shared" ca="1" si="2"/>
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H50">
         <f t="shared" ca="1" si="3"/>
@@ -11883,7 +11918,7 @@
       </c>
       <c r="D51" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>22133</v>
+        <v>22134</v>
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="0"/>
@@ -11895,7 +11930,7 @@
       </c>
       <c r="G51">
         <f t="shared" ca="1" si="2"/>
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H51">
         <f t="shared" ca="1" si="3"/>
@@ -11914,7 +11949,7 @@
       </c>
       <c r="D52" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>18201</v>
+        <v>18202</v>
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="0"/>
@@ -11926,7 +11961,7 @@
       </c>
       <c r="G52">
         <f t="shared" ca="1" si="2"/>
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H52">
         <f t="shared" ca="1" si="3"/>
@@ -11945,7 +11980,7 @@
       </c>
       <c r="D53" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>21424</v>
+        <v>21425</v>
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="0"/>
@@ -11957,7 +11992,7 @@
       </c>
       <c r="G53">
         <f t="shared" ca="1" si="2"/>
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H53">
         <f t="shared" ca="1" si="3"/>
@@ -11976,7 +12011,7 @@
       </c>
       <c r="D54" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>18890</v>
+        <v>18891</v>
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="0"/>
@@ -11988,7 +12023,7 @@
       </c>
       <c r="G54">
         <f t="shared" ca="1" si="2"/>
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H54">
         <f t="shared" ca="1" si="3"/>
@@ -12007,7 +12042,7 @@
       </c>
       <c r="D55" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>19676</v>
+        <v>19677</v>
       </c>
       <c r="E55">
         <f t="shared" ca="1" si="0"/>
@@ -12019,7 +12054,7 @@
       </c>
       <c r="G55">
         <f t="shared" ca="1" si="2"/>
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H55">
         <f t="shared" ca="1" si="3"/>
@@ -12038,7 +12073,7 @@
       </c>
       <c r="D56" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>20192</v>
+        <v>20193</v>
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="0"/>
@@ -12050,7 +12085,7 @@
       </c>
       <c r="G56">
         <f t="shared" ca="1" si="2"/>
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H56">
         <f t="shared" ca="1" si="3"/>
@@ -12069,7 +12104,7 @@
       </c>
       <c r="D57" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>19862</v>
+        <v>19863</v>
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="0"/>
@@ -12081,7 +12116,7 @@
       </c>
       <c r="G57">
         <f t="shared" ca="1" si="2"/>
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H57">
         <f t="shared" ca="1" si="3"/>
@@ -12100,7 +12135,7 @@
       </c>
       <c r="D58" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>11629</v>
+        <v>11630</v>
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="0"/>
@@ -12112,7 +12147,7 @@
       </c>
       <c r="G58">
         <f t="shared" ca="1" si="2"/>
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H58">
         <f t="shared" ca="1" si="3"/>
@@ -12131,7 +12166,7 @@
       </c>
       <c r="D59" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>18656</v>
+        <v>18657</v>
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="0"/>
@@ -12139,15 +12174,15 @@
       </c>
       <c r="F59">
         <f t="shared" ca="1" si="1"/>
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="G59">
         <f t="shared" ca="1" si="2"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H59">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
@@ -12162,7 +12197,7 @@
       </c>
       <c r="D60" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>21509</v>
+        <v>21510</v>
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="0"/>
@@ -12174,7 +12209,7 @@
       </c>
       <c r="G60">
         <f t="shared" ca="1" si="2"/>
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H60">
         <f t="shared" ca="1" si="3"/>
@@ -12193,7 +12228,7 @@
       </c>
       <c r="D61" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>17598</v>
+        <v>17599</v>
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="0"/>
@@ -12205,7 +12240,7 @@
       </c>
       <c r="G61">
         <f t="shared" ca="1" si="2"/>
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H61">
         <f t="shared" ca="1" si="3"/>
@@ -12224,7 +12259,7 @@
       </c>
       <c r="D62" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>10629</v>
+        <v>10630</v>
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="0"/>
@@ -12236,7 +12271,7 @@
       </c>
       <c r="G62">
         <f t="shared" ca="1" si="2"/>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H62">
         <f t="shared" ca="1" si="3"/>
@@ -12255,7 +12290,7 @@
       </c>
       <c r="D63" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>11426</v>
+        <v>11427</v>
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="0"/>
@@ -12267,7 +12302,7 @@
       </c>
       <c r="G63">
         <f t="shared" ca="1" si="2"/>
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H63">
         <f t="shared" ca="1" si="3"/>
@@ -12286,7 +12321,7 @@
       </c>
       <c r="D64" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>11524</v>
+        <v>11525</v>
       </c>
       <c r="E64">
         <f t="shared" ca="1" si="0"/>
@@ -12298,7 +12333,7 @@
       </c>
       <c r="G64">
         <f t="shared" ca="1" si="2"/>
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H64">
         <f t="shared" ca="1" si="3"/>
@@ -12317,7 +12352,7 @@
       </c>
       <c r="D65" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>13199</v>
+        <v>13200</v>
       </c>
       <c r="E65">
         <f t="shared" ca="1" si="0"/>
@@ -12329,7 +12364,7 @@
       </c>
       <c r="G65">
         <f t="shared" ca="1" si="2"/>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H65">
         <f t="shared" ca="1" si="3"/>
@@ -12348,7 +12383,7 @@
       </c>
       <c r="D66" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>11008</v>
+        <v>11009</v>
       </c>
       <c r="E66">
         <f t="shared" ca="1" si="0"/>
@@ -12360,7 +12395,7 @@
       </c>
       <c r="G66">
         <f t="shared" ca="1" si="2"/>
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H66">
         <f t="shared" ca="1" si="3"/>
@@ -12379,7 +12414,7 @@
       </c>
       <c r="D67" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>10130</v>
+        <v>10131</v>
       </c>
       <c r="E67">
         <f t="shared" ref="E67:E101" ca="1" si="5">DATEDIF(C67,TODAY(),"Y")</f>
@@ -12391,7 +12426,7 @@
       </c>
       <c r="G67">
         <f t="shared" ref="G67:G101" ca="1" si="7">DATEDIF(C67,TODAY(),"YD")</f>
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H67">
         <f t="shared" ref="H67:H101" ca="1" si="8">DATEDIF(C67,TODAY(),"YM")</f>
@@ -12410,7 +12445,7 @@
       </c>
       <c r="D68" s="10">
         <f t="shared" ref="D68:D101" ca="1" si="9">TODAY()-C68</f>
-        <v>20378</v>
+        <v>20379</v>
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="5"/>
@@ -12422,7 +12457,7 @@
       </c>
       <c r="G68">
         <f t="shared" ca="1" si="7"/>
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H68">
         <f t="shared" ca="1" si="8"/>
@@ -12441,7 +12476,7 @@
       </c>
       <c r="D69" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>16974</v>
+        <v>16975</v>
       </c>
       <c r="E69">
         <f t="shared" ca="1" si="5"/>
@@ -12453,7 +12488,7 @@
       </c>
       <c r="G69">
         <f t="shared" ca="1" si="7"/>
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H69">
         <f t="shared" ca="1" si="8"/>
@@ -12472,7 +12507,7 @@
       </c>
       <c r="D70" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>12286</v>
+        <v>12287</v>
       </c>
       <c r="E70">
         <f t="shared" ca="1" si="5"/>
@@ -12484,7 +12519,7 @@
       </c>
       <c r="G70">
         <f t="shared" ca="1" si="7"/>
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H70">
         <f t="shared" ca="1" si="8"/>
@@ -12503,7 +12538,7 @@
       </c>
       <c r="D71" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>11820</v>
+        <v>11821</v>
       </c>
       <c r="E71">
         <f t="shared" ca="1" si="5"/>
@@ -12515,7 +12550,7 @@
       </c>
       <c r="G71">
         <f t="shared" ca="1" si="7"/>
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H71">
         <f t="shared" ca="1" si="8"/>
@@ -12534,7 +12569,7 @@
       </c>
       <c r="D72" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>11701</v>
+        <v>11702</v>
       </c>
       <c r="E72">
         <f t="shared" ca="1" si="5"/>
@@ -12546,7 +12581,7 @@
       </c>
       <c r="G72">
         <f t="shared" ca="1" si="7"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H72">
         <f t="shared" ca="1" si="8"/>
@@ -12565,7 +12600,7 @@
       </c>
       <c r="D73" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>14732</v>
+        <v>14733</v>
       </c>
       <c r="E73">
         <f t="shared" ca="1" si="5"/>
@@ -12577,7 +12612,7 @@
       </c>
       <c r="G73">
         <f t="shared" ca="1" si="7"/>
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H73">
         <f t="shared" ca="1" si="8"/>
@@ -12596,7 +12631,7 @@
       </c>
       <c r="D74" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>11225</v>
+        <v>11226</v>
       </c>
       <c r="E74">
         <f t="shared" ca="1" si="5"/>
@@ -12608,7 +12643,7 @@
       </c>
       <c r="G74">
         <f t="shared" ca="1" si="7"/>
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H74">
         <f t="shared" ca="1" si="8"/>
@@ -12627,7 +12662,7 @@
       </c>
       <c r="D75" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>14179</v>
+        <v>14180</v>
       </c>
       <c r="E75">
         <f t="shared" ca="1" si="5"/>
@@ -12639,7 +12674,7 @@
       </c>
       <c r="G75">
         <f t="shared" ca="1" si="7"/>
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H75">
         <f t="shared" ca="1" si="8"/>
@@ -12658,7 +12693,7 @@
       </c>
       <c r="D76" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>22161</v>
+        <v>22162</v>
       </c>
       <c r="E76">
         <f t="shared" ca="1" si="5"/>
@@ -12670,7 +12705,7 @@
       </c>
       <c r="G76">
         <f t="shared" ca="1" si="7"/>
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H76">
         <f t="shared" ca="1" si="8"/>
@@ -12689,7 +12724,7 @@
       </c>
       <c r="D77" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>21984</v>
+        <v>21985</v>
       </c>
       <c r="E77">
         <f t="shared" ca="1" si="5"/>
@@ -12701,7 +12736,7 @@
       </c>
       <c r="G77">
         <f t="shared" ca="1" si="7"/>
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H77">
         <f t="shared" ca="1" si="8"/>
@@ -12720,7 +12755,7 @@
       </c>
       <c r="D78" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>11765</v>
+        <v>11766</v>
       </c>
       <c r="E78">
         <f t="shared" ca="1" si="5"/>
@@ -12732,7 +12767,7 @@
       </c>
       <c r="G78">
         <f t="shared" ca="1" si="7"/>
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H78">
         <f t="shared" ca="1" si="8"/>
@@ -12751,7 +12786,7 @@
       </c>
       <c r="D79" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>10252</v>
+        <v>10253</v>
       </c>
       <c r="E79">
         <f t="shared" ca="1" si="5"/>
@@ -12763,7 +12798,7 @@
       </c>
       <c r="G79">
         <f t="shared" ca="1" si="7"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H79">
         <f t="shared" ca="1" si="8"/>
@@ -12782,7 +12817,7 @@
       </c>
       <c r="D80" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>14796</v>
+        <v>14797</v>
       </c>
       <c r="E80">
         <f t="shared" ca="1" si="5"/>
@@ -12794,7 +12829,7 @@
       </c>
       <c r="G80">
         <f t="shared" ca="1" si="7"/>
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H80">
         <f t="shared" ca="1" si="8"/>
@@ -12813,7 +12848,7 @@
       </c>
       <c r="D81" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>18127</v>
+        <v>18128</v>
       </c>
       <c r="E81">
         <f t="shared" ca="1" si="5"/>
@@ -12825,7 +12860,7 @@
       </c>
       <c r="G81">
         <f t="shared" ca="1" si="7"/>
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H81">
         <f t="shared" ca="1" si="8"/>
@@ -12844,7 +12879,7 @@
       </c>
       <c r="D82" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>18524</v>
+        <v>18525</v>
       </c>
       <c r="E82">
         <f t="shared" ca="1" si="5"/>
@@ -12856,7 +12891,7 @@
       </c>
       <c r="G82">
         <f t="shared" ca="1" si="7"/>
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H82">
         <f t="shared" ca="1" si="8"/>
@@ -12875,7 +12910,7 @@
       </c>
       <c r="D83" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>16191</v>
+        <v>16192</v>
       </c>
       <c r="E83">
         <f t="shared" ca="1" si="5"/>
@@ -12887,7 +12922,7 @@
       </c>
       <c r="G83">
         <f t="shared" ca="1" si="7"/>
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H83">
         <f t="shared" ca="1" si="8"/>
@@ -12906,7 +12941,7 @@
       </c>
       <c r="D84" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>16364</v>
+        <v>16365</v>
       </c>
       <c r="E84">
         <f t="shared" ca="1" si="5"/>
@@ -12918,7 +12953,7 @@
       </c>
       <c r="G84">
         <f t="shared" ca="1" si="7"/>
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H84">
         <f t="shared" ca="1" si="8"/>
@@ -12937,7 +12972,7 @@
       </c>
       <c r="D85" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>22835</v>
+        <v>22836</v>
       </c>
       <c r="E85">
         <f t="shared" ca="1" si="5"/>
@@ -12949,7 +12984,7 @@
       </c>
       <c r="G85">
         <f t="shared" ca="1" si="7"/>
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H85">
         <f t="shared" ca="1" si="8"/>
@@ -12968,7 +13003,7 @@
       </c>
       <c r="D86" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>19677</v>
+        <v>19678</v>
       </c>
       <c r="E86">
         <f t="shared" ca="1" si="5"/>
@@ -12980,7 +13015,7 @@
       </c>
       <c r="G86">
         <f t="shared" ca="1" si="7"/>
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H86">
         <f t="shared" ca="1" si="8"/>
@@ -12999,7 +13034,7 @@
       </c>
       <c r="D87" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>18048</v>
+        <v>18049</v>
       </c>
       <c r="E87">
         <f t="shared" ca="1" si="5"/>
@@ -13011,7 +13046,7 @@
       </c>
       <c r="G87">
         <f t="shared" ca="1" si="7"/>
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H87">
         <f t="shared" ca="1" si="8"/>
@@ -13030,7 +13065,7 @@
       </c>
       <c r="D88" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>21547</v>
+        <v>21548</v>
       </c>
       <c r="E88">
         <f t="shared" ca="1" si="5"/>
@@ -13042,7 +13077,7 @@
       </c>
       <c r="G88">
         <f t="shared" ca="1" si="7"/>
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H88">
         <f t="shared" ca="1" si="8"/>
@@ -13061,7 +13096,7 @@
       </c>
       <c r="D89" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>15121</v>
+        <v>15122</v>
       </c>
       <c r="E89">
         <f t="shared" ca="1" si="5"/>
@@ -13073,7 +13108,7 @@
       </c>
       <c r="G89">
         <f t="shared" ca="1" si="7"/>
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H89">
         <f t="shared" ca="1" si="8"/>
@@ -13092,7 +13127,7 @@
       </c>
       <c r="D90" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>14783</v>
+        <v>14784</v>
       </c>
       <c r="E90">
         <f t="shared" ca="1" si="5"/>
@@ -13104,7 +13139,7 @@
       </c>
       <c r="G90">
         <f t="shared" ca="1" si="7"/>
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H90">
         <f t="shared" ca="1" si="8"/>
@@ -13123,7 +13158,7 @@
       </c>
       <c r="D91" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>19547</v>
+        <v>19548</v>
       </c>
       <c r="E91">
         <f t="shared" ca="1" si="5"/>
@@ -13135,7 +13170,7 @@
       </c>
       <c r="G91">
         <f t="shared" ca="1" si="7"/>
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H91">
         <f t="shared" ca="1" si="8"/>
@@ -13154,7 +13189,7 @@
       </c>
       <c r="D92" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>16109</v>
+        <v>16110</v>
       </c>
       <c r="E92">
         <f t="shared" ca="1" si="5"/>
@@ -13166,7 +13201,7 @@
       </c>
       <c r="G92">
         <f t="shared" ca="1" si="7"/>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H92">
         <f t="shared" ca="1" si="8"/>
@@ -13185,7 +13220,7 @@
       </c>
       <c r="D93" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>12785</v>
+        <v>12786</v>
       </c>
       <c r="E93">
         <f t="shared" ca="1" si="5"/>
@@ -13197,7 +13232,7 @@
       </c>
       <c r="G93">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H93">
         <f t="shared" ca="1" si="8"/>
@@ -13216,7 +13251,7 @@
       </c>
       <c r="D94" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>22599</v>
+        <v>22600</v>
       </c>
       <c r="E94">
         <f t="shared" ca="1" si="5"/>
@@ -13228,7 +13263,7 @@
       </c>
       <c r="G94">
         <f t="shared" ca="1" si="7"/>
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H94">
         <f t="shared" ca="1" si="8"/>
@@ -13247,7 +13282,7 @@
       </c>
       <c r="D95" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>12171</v>
+        <v>12172</v>
       </c>
       <c r="E95">
         <f t="shared" ca="1" si="5"/>
@@ -13259,7 +13294,7 @@
       </c>
       <c r="G95">
         <f t="shared" ca="1" si="7"/>
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H95">
         <f t="shared" ca="1" si="8"/>
@@ -13278,7 +13313,7 @@
       </c>
       <c r="D96" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>23023</v>
+        <v>23024</v>
       </c>
       <c r="E96">
         <f t="shared" ca="1" si="5"/>
@@ -13290,7 +13325,7 @@
       </c>
       <c r="G96">
         <f t="shared" ca="1" si="7"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H96">
         <f t="shared" ca="1" si="8"/>
@@ -13309,7 +13344,7 @@
       </c>
       <c r="D97" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>10286</v>
+        <v>10287</v>
       </c>
       <c r="E97">
         <f t="shared" ca="1" si="5"/>
@@ -13321,7 +13356,7 @@
       </c>
       <c r="G97">
         <f t="shared" ca="1" si="7"/>
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H97">
         <f t="shared" ca="1" si="8"/>
@@ -13340,7 +13375,7 @@
       </c>
       <c r="D98" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>13400</v>
+        <v>13401</v>
       </c>
       <c r="E98">
         <f t="shared" ca="1" si="5"/>
@@ -13352,7 +13387,7 @@
       </c>
       <c r="G98">
         <f t="shared" ca="1" si="7"/>
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H98">
         <f t="shared" ca="1" si="8"/>
@@ -13371,7 +13406,7 @@
       </c>
       <c r="D99" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>13937</v>
+        <v>13938</v>
       </c>
       <c r="E99">
         <f t="shared" ca="1" si="5"/>
@@ -13383,7 +13418,7 @@
       </c>
       <c r="G99">
         <f t="shared" ca="1" si="7"/>
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H99">
         <f t="shared" ca="1" si="8"/>
@@ -13402,7 +13437,7 @@
       </c>
       <c r="D100" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>21404</v>
+        <v>21405</v>
       </c>
       <c r="E100">
         <f t="shared" ca="1" si="5"/>
@@ -13414,7 +13449,7 @@
       </c>
       <c r="G100">
         <f t="shared" ca="1" si="7"/>
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H100">
         <f t="shared" ca="1" si="8"/>
@@ -13433,7 +13468,7 @@
       </c>
       <c r="D101" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>18980</v>
+        <v>18981</v>
       </c>
       <c r="E101">
         <f t="shared" ca="1" si="5"/>
@@ -13445,7 +13480,7 @@
       </c>
       <c r="G101">
         <f t="shared" ca="1" si="7"/>
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H101">
         <f t="shared" ca="1" si="8"/>
@@ -13464,8 +13499,8 @@
   </sheetPr>
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13490,8 +13525,8 @@
       <c r="B1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="31" t="s">
-        <v>218</v>
+      <c r="C1" s="30" t="s">
+        <v>217</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>39</v>
@@ -14457,7 +14492,7 @@
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A3:D26"/>
+  <dimension ref="A3:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J25" sqref="J25"/>
@@ -14469,196 +14504,195 @@
     <col min="2" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="B3" t="s">
         <v>219</v>
       </c>
-      <c r="B3" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="32">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="31">
         <v>1</v>
       </c>
-      <c r="B4" s="23">
+      <c r="B4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="32">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="31">
         <v>3</v>
       </c>
-      <c r="B5" s="23">
+      <c r="B5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="32">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="31">
         <v>5</v>
       </c>
-      <c r="B6" s="23">
+      <c r="B6">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="32">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="31">
         <v>6</v>
       </c>
-      <c r="B7" s="23">
+      <c r="B7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="32">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="31">
         <v>10</v>
       </c>
-      <c r="B8" s="23">
+      <c r="B8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="32">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="31">
         <v>14</v>
       </c>
-      <c r="B9" s="23">
+      <c r="B9">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="32">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="31">
         <v>15</v>
       </c>
-      <c r="B10" s="23">
+      <c r="B10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="32">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="31">
         <v>18</v>
       </c>
-      <c r="B11" s="23">
+      <c r="B11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="32">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="31">
         <v>20</v>
       </c>
-      <c r="B12" s="23">
+      <c r="B12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="32">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="31">
         <v>22</v>
       </c>
-      <c r="B13" s="23">
+      <c r="B13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="32">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="31">
         <v>23</v>
       </c>
-      <c r="B14" s="23">
+      <c r="B14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="32">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="31">
         <v>25</v>
       </c>
-      <c r="B15" s="23">
+      <c r="B15">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="32">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="31">
         <v>29</v>
       </c>
-      <c r="B16" s="23">
+      <c r="B16">
         <v>1</v>
       </c>
-      <c r="D16" s="33"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="32">
+      <c r="A17" s="31">
         <v>30</v>
       </c>
-      <c r="B17" s="23">
+      <c r="B17">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="32">
+      <c r="A18" s="31">
         <v>31</v>
       </c>
-      <c r="B18" s="23">
+      <c r="B18">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="32">
+      <c r="A19" s="31">
         <v>35</v>
       </c>
-      <c r="B19" s="23">
+      <c r="B19">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="32">
+      <c r="A20" s="31">
         <v>36</v>
       </c>
-      <c r="B20" s="23">
+      <c r="B20">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="32">
+      <c r="A21" s="31">
         <v>40</v>
       </c>
-      <c r="B21" s="23">
+      <c r="B21">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="32">
+      <c r="A22" s="31">
         <v>42</v>
       </c>
-      <c r="B22" s="23">
+      <c r="B22">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="32">
+      <c r="A23" s="31">
         <v>46</v>
       </c>
-      <c r="B23" s="23">
+      <c r="B23">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="32">
+      <c r="A24" s="31">
         <v>49</v>
       </c>
-      <c r="B24" s="23">
+      <c r="B24">
         <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="32">
+      <c r="A25" s="31">
         <v>53</v>
       </c>
-      <c r="B25" s="23">
+      <c r="B25">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="32" t="s">
-        <v>217</v>
-      </c>
-      <c r="B26" s="23">
+      <c r="A26" s="31" t="s">
+        <v>216</v>
+      </c>
+      <c r="B26">
         <v>28</v>
       </c>
     </row>
@@ -14681,8 +14715,8 @@
     <col min="1" max="1" width="13.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="15.88671875" style="34" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" style="34" customWidth="1"/>
+    <col min="4" max="5" width="15.88671875" style="32" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" style="32" customWidth="1"/>
     <col min="7" max="7" width="21" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.109375" style="19" customWidth="1"/>
     <col min="9" max="9" width="12.6640625" customWidth="1"/>
@@ -14690,31 +14724,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="34" t="s">
         <v>166</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="34" t="s">
         <v>167</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="34" t="s">
         <v>168</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="35" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1" s="36" t="s">
+        <v>222</v>
+      </c>
+      <c r="F1" s="35" t="s">
         <v>221</v>
       </c>
-      <c r="E1" s="38" t="s">
-        <v>223</v>
-      </c>
-      <c r="F1" s="37" t="s">
-        <v>222</v>
-      </c>
-      <c r="G1" s="36" t="s">
+      <c r="G1" s="34" t="s">
         <v>169</v>
       </c>
       <c r="H1" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="I1" s="36" t="s">
+      <c r="I1" s="34" t="s">
         <v>171</v>
       </c>
     </row>
@@ -14728,15 +14762,15 @@
       <c r="C2" s="2">
         <v>43885</v>
       </c>
-      <c r="D2" s="35" t="str">
+      <c r="D2" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>понедельник</v>
       </c>
-      <c r="E2" s="34">
+      <c r="E2" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>1</v>
       </c>
-      <c r="F2" s="34">
+      <c r="F2" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>1</v>
       </c>
@@ -14760,15 +14794,15 @@
       <c r="C3" s="2">
         <v>43859</v>
       </c>
-      <c r="D3" s="35" t="str">
+      <c r="D3" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>среда</v>
       </c>
-      <c r="E3" s="34">
+      <c r="E3" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>3</v>
       </c>
-      <c r="F3" s="34">
+      <c r="F3" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>1</v>
       </c>
@@ -14792,15 +14826,15 @@
       <c r="C4" s="2">
         <v>43964</v>
       </c>
-      <c r="D4" s="35" t="str">
+      <c r="D4" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>среда</v>
       </c>
-      <c r="E4" s="34">
+      <c r="E4" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>3</v>
       </c>
-      <c r="F4" s="34">
+      <c r="F4" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>2</v>
       </c>
@@ -14824,15 +14858,15 @@
       <c r="C5" s="2">
         <v>43922</v>
       </c>
-      <c r="D5" s="35" t="str">
+      <c r="D5" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>среда</v>
       </c>
-      <c r="E5" s="34">
+      <c r="E5" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>3</v>
       </c>
-      <c r="F5" s="34">
+      <c r="F5" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>2</v>
       </c>
@@ -14857,15 +14891,15 @@
       <c r="C6" s="2">
         <v>43966</v>
       </c>
-      <c r="D6" s="35" t="str">
+      <c r="D6" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>пятница</v>
       </c>
-      <c r="E6" s="34">
+      <c r="E6" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>5</v>
       </c>
-      <c r="F6" s="34">
+      <c r="F6" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>2</v>
       </c>
@@ -14890,15 +14924,15 @@
       <c r="C7" s="2">
         <v>43973</v>
       </c>
-      <c r="D7" s="35" t="str">
+      <c r="D7" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>пятница</v>
       </c>
-      <c r="E7" s="34">
+      <c r="E7" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>5</v>
       </c>
-      <c r="F7" s="34">
+      <c r="F7" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>2</v>
       </c>
@@ -14922,15 +14956,15 @@
       <c r="C8" s="2">
         <v>43889</v>
       </c>
-      <c r="D8" s="35" t="str">
+      <c r="D8" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>пятница</v>
       </c>
-      <c r="E8" s="34">
+      <c r="E8" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>5</v>
       </c>
-      <c r="F8" s="34">
+      <c r="F8" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>1</v>
       </c>
@@ -14954,15 +14988,15 @@
       <c r="C9" s="2">
         <v>44012</v>
       </c>
-      <c r="D9" s="35" t="str">
+      <c r="D9" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>вторник</v>
       </c>
-      <c r="E9" s="34">
+      <c r="E9" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>2</v>
       </c>
-      <c r="F9" s="34">
+      <c r="F9" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>2</v>
       </c>
@@ -14986,15 +15020,15 @@
       <c r="C10" s="2">
         <v>44005</v>
       </c>
-      <c r="D10" s="35" t="str">
+      <c r="D10" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>вторник</v>
       </c>
-      <c r="E10" s="34">
+      <c r="E10" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>2</v>
       </c>
-      <c r="F10" s="34">
+      <c r="F10" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>2</v>
       </c>
@@ -15018,15 +15052,15 @@
       <c r="C11" s="2">
         <v>43961</v>
       </c>
-      <c r="D11" s="35" t="str">
+      <c r="D11" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>воскресенье</v>
       </c>
-      <c r="E11" s="34">
+      <c r="E11" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>7</v>
       </c>
-      <c r="F11" s="34">
+      <c r="F11" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>2</v>
       </c>
@@ -15050,15 +15084,15 @@
       <c r="C12" s="2">
         <v>43837</v>
       </c>
-      <c r="D12" s="35" t="str">
+      <c r="D12" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>вторник</v>
       </c>
-      <c r="E12" s="34">
+      <c r="E12" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>2</v>
       </c>
-      <c r="F12" s="34">
+      <c r="F12" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>1</v>
       </c>
@@ -15082,15 +15116,15 @@
       <c r="C13" s="2">
         <v>43894</v>
       </c>
-      <c r="D13" s="35" t="str">
+      <c r="D13" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>среда</v>
       </c>
-      <c r="E13" s="34">
+      <c r="E13" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>3</v>
       </c>
-      <c r="F13" s="34">
+      <c r="F13" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>1</v>
       </c>
@@ -15114,15 +15148,15 @@
       <c r="C14" s="2">
         <v>43885</v>
       </c>
-      <c r="D14" s="35" t="str">
+      <c r="D14" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>понедельник</v>
       </c>
-      <c r="E14" s="34">
+      <c r="E14" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>1</v>
       </c>
-      <c r="F14" s="34">
+      <c r="F14" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>1</v>
       </c>
@@ -15146,15 +15180,15 @@
       <c r="C15" s="2">
         <v>43882</v>
       </c>
-      <c r="D15" s="35" t="str">
+      <c r="D15" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>пятница</v>
       </c>
-      <c r="E15" s="34">
+      <c r="E15" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>5</v>
       </c>
-      <c r="F15" s="34">
+      <c r="F15" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>1</v>
       </c>
@@ -15178,15 +15212,15 @@
       <c r="C16" s="2">
         <v>43885</v>
       </c>
-      <c r="D16" s="35" t="str">
+      <c r="D16" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>понедельник</v>
       </c>
-      <c r="E16" s="34">
+      <c r="E16" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>1</v>
       </c>
-      <c r="F16" s="34">
+      <c r="F16" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>1</v>
       </c>
@@ -15210,15 +15244,15 @@
       <c r="C17" s="2">
         <v>43864</v>
       </c>
-      <c r="D17" s="35" t="str">
+      <c r="D17" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>понедельник</v>
       </c>
-      <c r="E17" s="34">
+      <c r="E17" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>1</v>
       </c>
-      <c r="F17" s="34">
+      <c r="F17" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>1</v>
       </c>
@@ -15242,15 +15276,15 @@
       <c r="C18" s="2">
         <v>43930</v>
       </c>
-      <c r="D18" s="35" t="str">
+      <c r="D18" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>четверг</v>
       </c>
-      <c r="E18" s="34">
+      <c r="E18" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>4</v>
       </c>
-      <c r="F18" s="34">
+      <c r="F18" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>2</v>
       </c>
@@ -15274,15 +15308,15 @@
       <c r="C19" s="2">
         <v>44163</v>
       </c>
-      <c r="D19" s="35" t="str">
+      <c r="D19" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>суббота</v>
       </c>
-      <c r="E19" s="34">
+      <c r="E19" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>6</v>
       </c>
-      <c r="F19" s="34">
+      <c r="F19" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>4</v>
       </c>
@@ -15306,15 +15340,15 @@
       <c r="C20" s="2">
         <v>43878</v>
       </c>
-      <c r="D20" s="35" t="str">
+      <c r="D20" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>понедельник</v>
       </c>
-      <c r="E20" s="34">
+      <c r="E20" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>1</v>
       </c>
-      <c r="F20" s="34">
+      <c r="F20" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>1</v>
       </c>
@@ -15338,15 +15372,15 @@
       <c r="C21" s="2">
         <v>43954</v>
       </c>
-      <c r="D21" s="35" t="str">
+      <c r="D21" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>воскресенье</v>
       </c>
-      <c r="E21" s="34">
+      <c r="E21" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>7</v>
       </c>
-      <c r="F21" s="34">
+      <c r="F21" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>2</v>
       </c>
@@ -15370,15 +15404,15 @@
       <c r="C22" s="2">
         <v>43927</v>
       </c>
-      <c r="D22" s="35" t="str">
+      <c r="D22" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>понедельник</v>
       </c>
-      <c r="E22" s="34">
+      <c r="E22" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>1</v>
       </c>
-      <c r="F22" s="34">
+      <c r="F22" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>2</v>
       </c>
@@ -15402,15 +15436,15 @@
       <c r="C23" s="2">
         <v>43965</v>
       </c>
-      <c r="D23" s="35" t="str">
+      <c r="D23" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>четверг</v>
       </c>
-      <c r="E23" s="34">
+      <c r="E23" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>4</v>
       </c>
-      <c r="F23" s="34">
+      <c r="F23" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>2</v>
       </c>
@@ -15434,15 +15468,15 @@
       <c r="C24" s="2">
         <v>43851</v>
       </c>
-      <c r="D24" s="35" t="str">
+      <c r="D24" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>вторник</v>
       </c>
-      <c r="E24" s="34">
+      <c r="E24" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>2</v>
       </c>
-      <c r="F24" s="34">
+      <c r="F24" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>1</v>
       </c>
@@ -15466,15 +15500,15 @@
       <c r="C25" s="2">
         <v>43855</v>
       </c>
-      <c r="D25" s="35" t="str">
+      <c r="D25" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>суббота</v>
       </c>
-      <c r="E25" s="34">
+      <c r="E25" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>6</v>
       </c>
-      <c r="F25" s="34">
+      <c r="F25" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>1</v>
       </c>
@@ -15498,15 +15532,15 @@
       <c r="C26" s="2">
         <v>43894</v>
       </c>
-      <c r="D26" s="35" t="str">
+      <c r="D26" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>среда</v>
       </c>
-      <c r="E26" s="34">
+      <c r="E26" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>3</v>
       </c>
-      <c r="F26" s="34">
+      <c r="F26" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>1</v>
       </c>
@@ -15530,15 +15564,15 @@
       <c r="C27" s="2">
         <v>43840</v>
       </c>
-      <c r="D27" s="35" t="str">
+      <c r="D27" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>пятница</v>
       </c>
-      <c r="E27" s="34">
+      <c r="E27" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>5</v>
       </c>
-      <c r="F27" s="34">
+      <c r="F27" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>1</v>
       </c>
@@ -15562,15 +15596,15 @@
       <c r="C28" s="2">
         <v>43984</v>
       </c>
-      <c r="D28" s="35" t="str">
+      <c r="D28" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>вторник</v>
       </c>
-      <c r="E28" s="34">
+      <c r="E28" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>2</v>
       </c>
-      <c r="F28" s="34">
+      <c r="F28" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>2</v>
       </c>
@@ -15594,15 +15628,15 @@
       <c r="C29" s="2">
         <v>43956</v>
       </c>
-      <c r="D29" s="35" t="str">
+      <c r="D29" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>вторник</v>
       </c>
-      <c r="E29" s="34">
+      <c r="E29" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>2</v>
       </c>
-      <c r="F29" s="34">
+      <c r="F29" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>2</v>
       </c>
@@ -15626,15 +15660,15 @@
       <c r="C30" s="2">
         <v>44003</v>
       </c>
-      <c r="D30" s="35" t="str">
+      <c r="D30" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>воскресенье</v>
       </c>
-      <c r="E30" s="34">
+      <c r="E30" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>7</v>
       </c>
-      <c r="F30" s="34">
+      <c r="F30" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>2</v>
       </c>
@@ -15658,15 +15692,15 @@
       <c r="C31" s="2">
         <v>43967</v>
       </c>
-      <c r="D31" s="35" t="str">
+      <c r="D31" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>суббота</v>
       </c>
-      <c r="E31" s="34">
+      <c r="E31" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>6</v>
       </c>
-      <c r="F31" s="34">
+      <c r="F31" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>2</v>
       </c>
@@ -15690,15 +15724,15 @@
       <c r="C32" s="2">
         <v>43947</v>
       </c>
-      <c r="D32" s="35" t="str">
+      <c r="D32" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>воскресенье</v>
       </c>
-      <c r="E32" s="34">
+      <c r="E32" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>7</v>
       </c>
-      <c r="F32" s="34">
+      <c r="F32" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>2</v>
       </c>
@@ -15722,15 +15756,15 @@
       <c r="C33" s="2">
         <v>43860</v>
       </c>
-      <c r="D33" s="35" t="str">
+      <c r="D33" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>четверг</v>
       </c>
-      <c r="E33" s="34">
+      <c r="E33" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>4</v>
       </c>
-      <c r="F33" s="34">
+      <c r="F33" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>1</v>
       </c>
@@ -15754,15 +15788,15 @@
       <c r="C34" s="2">
         <v>43852</v>
       </c>
-      <c r="D34" s="35" t="str">
+      <c r="D34" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>среда</v>
       </c>
-      <c r="E34" s="34">
+      <c r="E34" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>3</v>
       </c>
-      <c r="F34" s="34">
+      <c r="F34" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>1</v>
       </c>
@@ -15786,15 +15820,15 @@
       <c r="C35" s="2">
         <v>43862</v>
       </c>
-      <c r="D35" s="35" t="str">
+      <c r="D35" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>суббота</v>
       </c>
-      <c r="E35" s="34">
+      <c r="E35" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>6</v>
       </c>
-      <c r="F35" s="34">
+      <c r="F35" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>1</v>
       </c>
@@ -15818,15 +15852,15 @@
       <c r="C36" s="2">
         <v>43950</v>
       </c>
-      <c r="D36" s="35" t="str">
+      <c r="D36" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>среда</v>
       </c>
-      <c r="E36" s="34">
+      <c r="E36" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>3</v>
       </c>
-      <c r="F36" s="34">
+      <c r="F36" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>2</v>
       </c>
@@ -15850,15 +15884,15 @@
       <c r="C37" s="2">
         <v>43837</v>
       </c>
-      <c r="D37" s="35" t="str">
+      <c r="D37" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>вторник</v>
       </c>
-      <c r="E37" s="34">
+      <c r="E37" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>2</v>
       </c>
-      <c r="F37" s="34">
+      <c r="F37" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>1</v>
       </c>
@@ -15882,15 +15916,15 @@
       <c r="C38" s="2">
         <v>43837</v>
       </c>
-      <c r="D38" s="35" t="str">
+      <c r="D38" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>вторник</v>
       </c>
-      <c r="E38" s="34">
+      <c r="E38" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>2</v>
       </c>
-      <c r="F38" s="34">
+      <c r="F38" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>1</v>
       </c>
@@ -15914,15 +15948,15 @@
       <c r="C39" s="2">
         <v>43951</v>
       </c>
-      <c r="D39" s="35" t="str">
+      <c r="D39" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>четверг</v>
       </c>
-      <c r="E39" s="34">
+      <c r="E39" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>4</v>
       </c>
-      <c r="F39" s="34">
+      <c r="F39" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>2</v>
       </c>
@@ -15946,15 +15980,15 @@
       <c r="C40" s="2">
         <v>43880</v>
       </c>
-      <c r="D40" s="35" t="str">
+      <c r="D40" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>среда</v>
       </c>
-      <c r="E40" s="34">
+      <c r="E40" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>3</v>
       </c>
-      <c r="F40" s="34">
+      <c r="F40" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>1</v>
       </c>
@@ -15978,15 +16012,15 @@
       <c r="C41" s="2">
         <v>43897</v>
       </c>
-      <c r="D41" s="35" t="str">
+      <c r="D41" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>суббота</v>
       </c>
-      <c r="E41" s="34">
+      <c r="E41" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>6</v>
       </c>
-      <c r="F41" s="34">
+      <c r="F41" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>1</v>
       </c>
@@ -16010,15 +16044,15 @@
       <c r="C42" s="2">
         <v>43863</v>
       </c>
-      <c r="D42" s="35" t="str">
+      <c r="D42" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>воскресенье</v>
       </c>
-      <c r="E42" s="34">
+      <c r="E42" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>7</v>
       </c>
-      <c r="F42" s="34">
+      <c r="F42" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>1</v>
       </c>
@@ -16042,15 +16076,15 @@
       <c r="C43" s="2">
         <v>43912</v>
       </c>
-      <c r="D43" s="35" t="str">
+      <c r="D43" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>воскресенье</v>
       </c>
-      <c r="E43" s="34">
+      <c r="E43" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>7</v>
       </c>
-      <c r="F43" s="34">
+      <c r="F43" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>1</v>
       </c>
@@ -16074,15 +16108,15 @@
       <c r="C44" s="2">
         <v>43950</v>
       </c>
-      <c r="D44" s="35" t="str">
+      <c r="D44" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>среда</v>
       </c>
-      <c r="E44" s="34">
+      <c r="E44" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>3</v>
       </c>
-      <c r="F44" s="34">
+      <c r="F44" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>2</v>
       </c>
@@ -16106,15 +16140,15 @@
       <c r="C45" s="2">
         <v>43975</v>
       </c>
-      <c r="D45" s="35" t="str">
+      <c r="D45" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>воскресенье</v>
       </c>
-      <c r="E45" s="34">
+      <c r="E45" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>7</v>
       </c>
-      <c r="F45" s="34">
+      <c r="F45" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>2</v>
       </c>
@@ -16138,15 +16172,15 @@
       <c r="C46" s="2">
         <v>43896</v>
       </c>
-      <c r="D46" s="35" t="str">
+      <c r="D46" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>пятница</v>
       </c>
-      <c r="E46" s="34">
+      <c r="E46" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>5</v>
       </c>
-      <c r="F46" s="34">
+      <c r="F46" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>1</v>
       </c>
@@ -16170,15 +16204,15 @@
       <c r="C47" s="2">
         <v>43963</v>
       </c>
-      <c r="D47" s="35" t="str">
+      <c r="D47" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>вторник</v>
       </c>
-      <c r="E47" s="34">
+      <c r="E47" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>2</v>
       </c>
-      <c r="F47" s="34">
+      <c r="F47" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>2</v>
       </c>
@@ -16202,15 +16236,15 @@
       <c r="C48" s="2">
         <v>43940</v>
       </c>
-      <c r="D48" s="35" t="str">
+      <c r="D48" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>воскресенье</v>
       </c>
-      <c r="E48" s="34">
+      <c r="E48" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>7</v>
       </c>
-      <c r="F48" s="34">
+      <c r="F48" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>2</v>
       </c>
@@ -16234,15 +16268,15 @@
       <c r="C49" s="2">
         <v>43972</v>
       </c>
-      <c r="D49" s="35" t="str">
+      <c r="D49" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>четверг</v>
       </c>
-      <c r="E49" s="34">
+      <c r="E49" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>4</v>
       </c>
-      <c r="F49" s="34">
+      <c r="F49" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>2</v>
       </c>
@@ -16266,15 +16300,15 @@
       <c r="C50" s="2">
         <v>44007</v>
       </c>
-      <c r="D50" s="35" t="str">
+      <c r="D50" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>четверг</v>
       </c>
-      <c r="E50" s="34">
+      <c r="E50" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>4</v>
       </c>
-      <c r="F50" s="34">
+      <c r="F50" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>2</v>
       </c>
@@ -16298,15 +16332,15 @@
       <c r="C51" s="2">
         <v>44004</v>
       </c>
-      <c r="D51" s="35" t="str">
+      <c r="D51" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>понедельник</v>
       </c>
-      <c r="E51" s="34">
+      <c r="E51" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>1</v>
       </c>
-      <c r="F51" s="34">
+      <c r="F51" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>2</v>
       </c>
@@ -16330,15 +16364,15 @@
       <c r="C52" s="2">
         <v>43854</v>
       </c>
-      <c r="D52" s="35" t="str">
+      <c r="D52" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>пятница</v>
       </c>
-      <c r="E52" s="34">
+      <c r="E52" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>5</v>
       </c>
-      <c r="F52" s="34">
+      <c r="F52" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>1</v>
       </c>
@@ -16362,15 +16396,15 @@
       <c r="C53" s="2">
         <v>43989</v>
       </c>
-      <c r="D53" s="35" t="str">
+      <c r="D53" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>воскресенье</v>
       </c>
-      <c r="E53" s="34">
+      <c r="E53" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>7</v>
       </c>
-      <c r="F53" s="34">
+      <c r="F53" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>2</v>
       </c>
@@ -16394,15 +16428,15 @@
       <c r="C54" s="2">
         <v>43942</v>
       </c>
-      <c r="D54" s="35" t="str">
+      <c r="D54" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>вторник</v>
       </c>
-      <c r="E54" s="34">
+      <c r="E54" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>2</v>
       </c>
-      <c r="F54" s="34">
+      <c r="F54" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>2</v>
       </c>
@@ -16426,15 +16460,15 @@
       <c r="C55" s="2">
         <v>43867</v>
       </c>
-      <c r="D55" s="35" t="str">
+      <c r="D55" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>четверг</v>
       </c>
-      <c r="E55" s="34">
+      <c r="E55" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>4</v>
       </c>
-      <c r="F55" s="34">
+      <c r="F55" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>1</v>
       </c>
@@ -16458,15 +16492,15 @@
       <c r="C56" s="2">
         <v>43979</v>
       </c>
-      <c r="D56" s="35" t="str">
+      <c r="D56" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>четверг</v>
       </c>
-      <c r="E56" s="34">
+      <c r="E56" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>4</v>
       </c>
-      <c r="F56" s="34">
+      <c r="F56" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>2</v>
       </c>
@@ -16490,15 +16524,15 @@
       <c r="C57" s="2">
         <v>43957</v>
       </c>
-      <c r="D57" s="35" t="str">
+      <c r="D57" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>среда</v>
       </c>
-      <c r="E57" s="34">
+      <c r="E57" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>3</v>
       </c>
-      <c r="F57" s="34">
+      <c r="F57" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>2</v>
       </c>
@@ -16522,15 +16556,15 @@
       <c r="C58" s="2">
         <v>43850</v>
       </c>
-      <c r="D58" s="35" t="str">
+      <c r="D58" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>понедельник</v>
       </c>
-      <c r="E58" s="34">
+      <c r="E58" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>1</v>
       </c>
-      <c r="F58" s="34">
+      <c r="F58" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>1</v>
       </c>
@@ -16554,15 +16588,15 @@
       <c r="C59" s="2">
         <v>43934</v>
       </c>
-      <c r="D59" s="35" t="str">
+      <c r="D59" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>понедельник</v>
       </c>
-      <c r="E59" s="34">
+      <c r="E59" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>1</v>
       </c>
-      <c r="F59" s="34">
+      <c r="F59" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>2</v>
       </c>
@@ -16586,15 +16620,15 @@
       <c r="C60" s="2">
         <v>44009</v>
       </c>
-      <c r="D60" s="35" t="str">
+      <c r="D60" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>суббота</v>
       </c>
-      <c r="E60" s="34">
+      <c r="E60" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>6</v>
       </c>
-      <c r="F60" s="34">
+      <c r="F60" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>2</v>
       </c>
@@ -16618,15 +16652,15 @@
       <c r="C61" s="2">
         <v>43960</v>
       </c>
-      <c r="D61" s="35" t="str">
+      <c r="D61" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>суббота</v>
       </c>
-      <c r="E61" s="34">
+      <c r="E61" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>6</v>
       </c>
-      <c r="F61" s="34">
+      <c r="F61" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>2</v>
       </c>
@@ -16650,15 +16684,15 @@
       <c r="C62" s="2">
         <v>43910</v>
       </c>
-      <c r="D62" s="35" t="str">
+      <c r="D62" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>пятница</v>
       </c>
-      <c r="E62" s="34">
+      <c r="E62" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>5</v>
       </c>
-      <c r="F62" s="34">
+      <c r="F62" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>1</v>
       </c>
@@ -16682,15 +16716,15 @@
       <c r="C63" s="2">
         <v>43958</v>
       </c>
-      <c r="D63" s="35" t="str">
+      <c r="D63" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>четверг</v>
       </c>
-      <c r="E63" s="34">
+      <c r="E63" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>4</v>
       </c>
-      <c r="F63" s="34">
+      <c r="F63" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>2</v>
       </c>
@@ -16714,15 +16748,15 @@
       <c r="C64" s="2">
         <v>43881</v>
       </c>
-      <c r="D64" s="35" t="str">
+      <c r="D64" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>четверг</v>
       </c>
-      <c r="E64" s="34">
+      <c r="E64" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>4</v>
       </c>
-      <c r="F64" s="34">
+      <c r="F64" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>1</v>
       </c>
@@ -16746,15 +16780,15 @@
       <c r="C65" s="2">
         <v>43868</v>
       </c>
-      <c r="D65" s="35" t="str">
+      <c r="D65" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>пятница</v>
       </c>
-      <c r="E65" s="34">
+      <c r="E65" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>5</v>
       </c>
-      <c r="F65" s="34">
+      <c r="F65" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>1</v>
       </c>
@@ -16778,15 +16812,15 @@
       <c r="C66" s="2">
         <v>43913</v>
       </c>
-      <c r="D66" s="35" t="str">
+      <c r="D66" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>понедельник</v>
       </c>
-      <c r="E66" s="34">
+      <c r="E66" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>1</v>
       </c>
-      <c r="F66" s="34">
+      <c r="F66" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>1</v>
       </c>
@@ -16810,15 +16844,15 @@
       <c r="C67" s="2">
         <v>43924</v>
       </c>
-      <c r="D67" s="35" t="str">
+      <c r="D67" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>пятница</v>
       </c>
-      <c r="E67" s="34">
+      <c r="E67" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>5</v>
       </c>
-      <c r="F67" s="34">
+      <c r="F67" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>2</v>
       </c>
@@ -16842,15 +16876,15 @@
       <c r="C68" s="2">
         <v>43884</v>
       </c>
-      <c r="D68" s="35" t="str">
+      <c r="D68" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>воскресенье</v>
       </c>
-      <c r="E68" s="34">
+      <c r="E68" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>7</v>
       </c>
-      <c r="F68" s="34">
+      <c r="F68" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>1</v>
       </c>
@@ -16874,15 +16908,15 @@
       <c r="C69" s="2">
         <v>43843</v>
       </c>
-      <c r="D69" s="35" t="str">
+      <c r="D69" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>понедельник</v>
       </c>
-      <c r="E69" s="34">
+      <c r="E69" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>1</v>
       </c>
-      <c r="F69" s="34">
+      <c r="F69" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>1</v>
       </c>
@@ -16906,15 +16940,15 @@
       <c r="C70" s="2">
         <v>44004</v>
       </c>
-      <c r="D70" s="35" t="str">
+      <c r="D70" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>понедельник</v>
       </c>
-      <c r="E70" s="34">
+      <c r="E70" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>1</v>
       </c>
-      <c r="F70" s="34">
+      <c r="F70" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>2</v>
       </c>
@@ -16938,15 +16972,15 @@
       <c r="C71" s="2">
         <v>44177</v>
       </c>
-      <c r="D71" s="35" t="str">
+      <c r="D71" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>суббота</v>
       </c>
-      <c r="E71" s="34">
+      <c r="E71" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>6</v>
       </c>
-      <c r="F71" s="34">
+      <c r="F71" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>4</v>
       </c>
@@ -16970,15 +17004,15 @@
       <c r="C72" s="2">
         <v>43945</v>
       </c>
-      <c r="D72" s="35" t="str">
+      <c r="D72" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>пятница</v>
       </c>
-      <c r="E72" s="34">
+      <c r="E72" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>5</v>
       </c>
-      <c r="F72" s="34">
+      <c r="F72" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>2</v>
       </c>
@@ -17002,15 +17036,15 @@
       <c r="C73" s="2">
         <v>43985</v>
       </c>
-      <c r="D73" s="35" t="str">
+      <c r="D73" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>среда</v>
       </c>
-      <c r="E73" s="34">
+      <c r="E73" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>3</v>
       </c>
-      <c r="F73" s="34">
+      <c r="F73" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>2</v>
       </c>
@@ -17034,15 +17068,15 @@
       <c r="C74" s="2">
         <v>43939</v>
       </c>
-      <c r="D74" s="35" t="str">
+      <c r="D74" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>суббота</v>
       </c>
-      <c r="E74" s="34">
+      <c r="E74" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>6</v>
       </c>
-      <c r="F74" s="34">
+      <c r="F74" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>2</v>
       </c>
@@ -17066,15 +17100,15 @@
       <c r="C75" s="2">
         <v>43878</v>
       </c>
-      <c r="D75" s="35" t="str">
+      <c r="D75" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>понедельник</v>
       </c>
-      <c r="E75" s="34">
+      <c r="E75" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>1</v>
       </c>
-      <c r="F75" s="34">
+      <c r="F75" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>1</v>
       </c>
@@ -17098,15 +17132,15 @@
       <c r="C76" s="2">
         <v>43976</v>
       </c>
-      <c r="D76" s="35" t="str">
+      <c r="D76" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>понедельник</v>
       </c>
-      <c r="E76" s="34">
+      <c r="E76" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>1</v>
       </c>
-      <c r="F76" s="34">
+      <c r="F76" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>2</v>
       </c>
@@ -17130,15 +17164,15 @@
       <c r="C77" s="2">
         <v>43989</v>
       </c>
-      <c r="D77" s="35" t="str">
+      <c r="D77" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>воскресенье</v>
       </c>
-      <c r="E77" s="34">
+      <c r="E77" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>7</v>
       </c>
-      <c r="F77" s="34">
+      <c r="F77" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>2</v>
       </c>
@@ -17162,15 +17196,15 @@
       <c r="C78" s="2">
         <v>43873</v>
       </c>
-      <c r="D78" s="35" t="str">
+      <c r="D78" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>среда</v>
       </c>
-      <c r="E78" s="34">
+      <c r="E78" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>3</v>
       </c>
-      <c r="F78" s="34">
+      <c r="F78" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>1</v>
       </c>
@@ -17194,15 +17228,15 @@
       <c r="C79" s="2">
         <v>43904</v>
       </c>
-      <c r="D79" s="35" t="str">
+      <c r="D79" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>суббота</v>
       </c>
-      <c r="E79" s="34">
+      <c r="E79" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>6</v>
       </c>
-      <c r="F79" s="34">
+      <c r="F79" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>1</v>
       </c>
@@ -17226,15 +17260,15 @@
       <c r="C80" s="2">
         <v>43900</v>
       </c>
-      <c r="D80" s="35" t="str">
+      <c r="D80" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>вторник</v>
       </c>
-      <c r="E80" s="34">
+      <c r="E80" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>2</v>
       </c>
-      <c r="F80" s="34">
+      <c r="F80" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>1</v>
       </c>
@@ -17258,15 +17292,15 @@
       <c r="C81" s="2">
         <v>43917</v>
       </c>
-      <c r="D81" s="35" t="str">
+      <c r="D81" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>пятница</v>
       </c>
-      <c r="E81" s="34">
+      <c r="E81" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>5</v>
       </c>
-      <c r="F81" s="34">
+      <c r="F81" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>1</v>
       </c>
@@ -17290,15 +17324,15 @@
       <c r="C82" s="2">
         <v>43843</v>
       </c>
-      <c r="D82" s="35" t="str">
+      <c r="D82" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>понедельник</v>
       </c>
-      <c r="E82" s="34">
+      <c r="E82" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>1</v>
       </c>
-      <c r="F82" s="34">
+      <c r="F82" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>1</v>
       </c>
@@ -17322,15 +17356,15 @@
       <c r="C83" s="2">
         <v>43849</v>
       </c>
-      <c r="D83" s="35" t="str">
+      <c r="D83" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>воскресенье</v>
       </c>
-      <c r="E83" s="34">
+      <c r="E83" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>7</v>
       </c>
-      <c r="F83" s="34">
+      <c r="F83" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>1</v>
       </c>
@@ -17354,15 +17388,15 @@
       <c r="C84" s="2">
         <v>43899</v>
       </c>
-      <c r="D84" s="35" t="str">
+      <c r="D84" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>понедельник</v>
       </c>
-      <c r="E84" s="34">
+      <c r="E84" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>1</v>
       </c>
-      <c r="F84" s="34">
+      <c r="F84" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>1</v>
       </c>
@@ -17386,15 +17420,15 @@
       <c r="C85" s="2">
         <v>43996</v>
       </c>
-      <c r="D85" s="35" t="str">
+      <c r="D85" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>воскресенье</v>
       </c>
-      <c r="E85" s="34">
+      <c r="E85" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>7</v>
       </c>
-      <c r="F85" s="34">
+      <c r="F85" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>2</v>
       </c>
@@ -17418,15 +17452,15 @@
       <c r="C86" s="2">
         <v>44004</v>
       </c>
-      <c r="D86" s="35" t="str">
+      <c r="D86" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>понедельник</v>
       </c>
-      <c r="E86" s="34">
+      <c r="E86" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>1</v>
       </c>
-      <c r="F86" s="34">
+      <c r="F86" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>2</v>
       </c>
@@ -17450,15 +17484,15 @@
       <c r="C87" s="2">
         <v>43869</v>
       </c>
-      <c r="D87" s="35" t="str">
+      <c r="D87" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>суббота</v>
       </c>
-      <c r="E87" s="34">
+      <c r="E87" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>6</v>
       </c>
-      <c r="F87" s="34">
+      <c r="F87" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>1</v>
       </c>
@@ -17482,15 +17516,15 @@
       <c r="C88" s="2">
         <v>44006</v>
       </c>
-      <c r="D88" s="35" t="str">
+      <c r="D88" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>среда</v>
       </c>
-      <c r="E88" s="34">
+      <c r="E88" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>3</v>
       </c>
-      <c r="F88" s="34">
+      <c r="F88" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>2</v>
       </c>
@@ -17514,15 +17548,15 @@
       <c r="C89" s="2">
         <v>43833</v>
       </c>
-      <c r="D89" s="35" t="str">
+      <c r="D89" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>пятница</v>
       </c>
-      <c r="E89" s="34">
+      <c r="E89" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>5</v>
       </c>
-      <c r="F89" s="34">
+      <c r="F89" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>1</v>
       </c>
@@ -17546,15 +17580,15 @@
       <c r="C90" s="2">
         <v>44005</v>
       </c>
-      <c r="D90" s="35" t="str">
+      <c r="D90" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>вторник</v>
       </c>
-      <c r="E90" s="34">
+      <c r="E90" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>2</v>
       </c>
-      <c r="F90" s="34">
+      <c r="F90" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>2</v>
       </c>
@@ -17578,15 +17612,15 @@
       <c r="C91" s="2">
         <v>43858</v>
       </c>
-      <c r="D91" s="35" t="str">
+      <c r="D91" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>вторник</v>
       </c>
-      <c r="E91" s="34">
+      <c r="E91" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>2</v>
       </c>
-      <c r="F91" s="34">
+      <c r="F91" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>1</v>
       </c>
@@ -17610,15 +17644,15 @@
       <c r="C92" s="2">
         <v>43920</v>
       </c>
-      <c r="D92" s="35" t="str">
+      <c r="D92" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>понедельник</v>
       </c>
-      <c r="E92" s="34">
+      <c r="E92" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>1</v>
       </c>
-      <c r="F92" s="34">
+      <c r="F92" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>1</v>
       </c>
@@ -17642,15 +17676,15 @@
       <c r="C93" s="2">
         <v>43884</v>
       </c>
-      <c r="D93" s="35" t="str">
+      <c r="D93" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>воскресенье</v>
       </c>
-      <c r="E93" s="34">
+      <c r="E93" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>7</v>
       </c>
-      <c r="F93" s="34">
+      <c r="F93" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>1</v>
       </c>
@@ -17674,15 +17708,15 @@
       <c r="C94" s="2">
         <v>43867</v>
       </c>
-      <c r="D94" s="35" t="str">
+      <c r="D94" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>четверг</v>
       </c>
-      <c r="E94" s="34">
+      <c r="E94" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>4</v>
       </c>
-      <c r="F94" s="34">
+      <c r="F94" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>1</v>
       </c>
@@ -17706,15 +17740,15 @@
       <c r="C95" s="2">
         <v>44010</v>
       </c>
-      <c r="D95" s="35" t="str">
+      <c r="D95" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>воскресенье</v>
       </c>
-      <c r="E95" s="34">
+      <c r="E95" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>7</v>
       </c>
-      <c r="F95" s="34">
+      <c r="F95" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>2</v>
       </c>
@@ -17738,15 +17772,15 @@
       <c r="C96" s="2">
         <v>43978</v>
       </c>
-      <c r="D96" s="35" t="str">
+      <c r="D96" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>среда</v>
       </c>
-      <c r="E96" s="34">
+      <c r="E96" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>3</v>
       </c>
-      <c r="F96" s="34">
+      <c r="F96" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>2</v>
       </c>
@@ -17770,15 +17804,15 @@
       <c r="C97" s="2">
         <v>43847</v>
       </c>
-      <c r="D97" s="35" t="str">
+      <c r="D97" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>пятница</v>
       </c>
-      <c r="E97" s="34">
+      <c r="E97" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>5</v>
       </c>
-      <c r="F97" s="34">
+      <c r="F97" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>1</v>
       </c>
@@ -17802,15 +17836,15 @@
       <c r="C98" s="2">
         <v>43962</v>
       </c>
-      <c r="D98" s="35" t="str">
+      <c r="D98" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>понедельник</v>
       </c>
-      <c r="E98" s="34">
+      <c r="E98" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>1</v>
       </c>
-      <c r="F98" s="34">
+      <c r="F98" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>2</v>
       </c>
@@ -17834,15 +17868,15 @@
       <c r="C99" s="2">
         <v>43850</v>
       </c>
-      <c r="D99" s="35" t="str">
+      <c r="D99" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>понедельник</v>
       </c>
-      <c r="E99" s="34">
+      <c r="E99" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>1</v>
       </c>
-      <c r="F99" s="34">
+      <c r="F99" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>1</v>
       </c>
@@ -17866,15 +17900,15 @@
       <c r="C100" s="2">
         <v>43988</v>
       </c>
-      <c r="D100" s="35" t="str">
+      <c r="D100" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>суббота</v>
       </c>
-      <c r="E100" s="34">
+      <c r="E100" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>6</v>
       </c>
-      <c r="F100" s="34">
+      <c r="F100" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>2</v>
       </c>
@@ -17898,15 +17932,15 @@
       <c r="C101" s="2">
         <v>43894</v>
       </c>
-      <c r="D101" s="35" t="str">
+      <c r="D101" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>среда</v>
       </c>
-      <c r="E101" s="34">
+      <c r="E101" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>3</v>
       </c>
-      <c r="F101" s="34">
+      <c r="F101" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>1</v>
       </c>
@@ -17930,15 +17964,15 @@
       <c r="C102" s="2">
         <v>43846</v>
       </c>
-      <c r="D102" s="35" t="str">
+      <c r="D102" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>четверг</v>
       </c>
-      <c r="E102" s="34">
+      <c r="E102" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>4</v>
       </c>
-      <c r="F102" s="34">
+      <c r="F102" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>1</v>
       </c>
@@ -17962,15 +17996,15 @@
       <c r="C103" s="2">
         <v>43978</v>
       </c>
-      <c r="D103" s="35" t="str">
+      <c r="D103" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>среда</v>
       </c>
-      <c r="E103" s="34">
+      <c r="E103" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>3</v>
       </c>
-      <c r="F103" s="34">
+      <c r="F103" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>2</v>
       </c>
@@ -17994,15 +18028,15 @@
       <c r="C104" s="2">
         <v>43883</v>
       </c>
-      <c r="D104" s="35" t="str">
+      <c r="D104" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>суббота</v>
       </c>
-      <c r="E104" s="34">
+      <c r="E104" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>6</v>
       </c>
-      <c r="F104" s="34">
+      <c r="F104" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>1</v>
       </c>
@@ -18026,15 +18060,15 @@
       <c r="C105" s="2">
         <v>43983</v>
       </c>
-      <c r="D105" s="35" t="str">
+      <c r="D105" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>понедельник</v>
       </c>
-      <c r="E105" s="34">
+      <c r="E105" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>1</v>
       </c>
-      <c r="F105" s="34">
+      <c r="F105" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>2</v>
       </c>
@@ -18058,15 +18092,15 @@
       <c r="C106" s="2">
         <v>43956</v>
       </c>
-      <c r="D106" s="35" t="str">
+      <c r="D106" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>вторник</v>
       </c>
-      <c r="E106" s="34">
+      <c r="E106" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>2</v>
       </c>
-      <c r="F106" s="34">
+      <c r="F106" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>2</v>
       </c>
@@ -18090,15 +18124,15 @@
       <c r="C107" s="2">
         <v>43995</v>
       </c>
-      <c r="D107" s="35" t="str">
+      <c r="D107" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>суббота</v>
       </c>
-      <c r="E107" s="34">
+      <c r="E107" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>6</v>
       </c>
-      <c r="F107" s="34">
+      <c r="F107" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>2</v>
       </c>
@@ -18122,15 +18156,15 @@
       <c r="C108" s="2">
         <v>43859</v>
       </c>
-      <c r="D108" s="35" t="str">
+      <c r="D108" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>среда</v>
       </c>
-      <c r="E108" s="34">
+      <c r="E108" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>3</v>
       </c>
-      <c r="F108" s="34">
+      <c r="F108" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>1</v>
       </c>
@@ -18154,15 +18188,15 @@
       <c r="C109" s="2">
         <v>43938</v>
       </c>
-      <c r="D109" s="35" t="str">
+      <c r="D109" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>пятница</v>
       </c>
-      <c r="E109" s="34">
+      <c r="E109" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>5</v>
       </c>
-      <c r="F109" s="34">
+      <c r="F109" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>2</v>
       </c>
@@ -18186,15 +18220,15 @@
       <c r="C110" s="2">
         <v>43906</v>
       </c>
-      <c r="D110" s="35" t="str">
+      <c r="D110" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>понедельник</v>
       </c>
-      <c r="E110" s="34">
+      <c r="E110" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>1</v>
       </c>
-      <c r="F110" s="34">
+      <c r="F110" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>1</v>
       </c>
@@ -18218,15 +18252,15 @@
       <c r="C111" s="2">
         <v>43983</v>
       </c>
-      <c r="D111" s="35" t="str">
+      <c r="D111" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>понедельник</v>
       </c>
-      <c r="E111" s="34">
+      <c r="E111" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>1</v>
       </c>
-      <c r="F111" s="34">
+      <c r="F111" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>2</v>
       </c>
@@ -18250,15 +18284,15 @@
       <c r="C112" s="2">
         <v>43877</v>
       </c>
-      <c r="D112" s="35" t="str">
+      <c r="D112" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>воскресенье</v>
       </c>
-      <c r="E112" s="34">
+      <c r="E112" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>7</v>
       </c>
-      <c r="F112" s="34">
+      <c r="F112" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>1</v>
       </c>
@@ -18282,15 +18316,15 @@
       <c r="C113" s="2">
         <v>43993</v>
       </c>
-      <c r="D113" s="35" t="str">
+      <c r="D113" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>четверг</v>
       </c>
-      <c r="E113" s="34">
+      <c r="E113" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>4</v>
       </c>
-      <c r="F113" s="34">
+      <c r="F113" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>2</v>
       </c>
@@ -18314,15 +18348,15 @@
       <c r="C114" s="2">
         <v>43870</v>
       </c>
-      <c r="D114" s="35" t="str">
+      <c r="D114" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>воскресенье</v>
       </c>
-      <c r="E114" s="34">
+      <c r="E114" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>7</v>
       </c>
-      <c r="F114" s="34">
+      <c r="F114" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>1</v>
       </c>
@@ -18346,15 +18380,15 @@
       <c r="C115" s="2">
         <v>43844</v>
       </c>
-      <c r="D115" s="35" t="str">
+      <c r="D115" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>вторник</v>
       </c>
-      <c r="E115" s="34">
+      <c r="E115" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>2</v>
       </c>
-      <c r="F115" s="34">
+      <c r="F115" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>1</v>
       </c>
@@ -18378,15 +18412,15 @@
       <c r="C116" s="2">
         <v>43942</v>
       </c>
-      <c r="D116" s="35" t="str">
+      <c r="D116" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>вторник</v>
       </c>
-      <c r="E116" s="34">
+      <c r="E116" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>2</v>
       </c>
-      <c r="F116" s="34">
+      <c r="F116" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>2</v>
       </c>
@@ -18410,15 +18444,15 @@
       <c r="C117" s="2">
         <v>43935</v>
       </c>
-      <c r="D117" s="35" t="str">
+      <c r="D117" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>вторник</v>
       </c>
-      <c r="E117" s="34">
+      <c r="E117" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>2</v>
       </c>
-      <c r="F117" s="34">
+      <c r="F117" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>2</v>
       </c>
@@ -18442,15 +18476,15 @@
       <c r="C118" s="2">
         <v>43851</v>
       </c>
-      <c r="D118" s="35" t="str">
+      <c r="D118" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>вторник</v>
       </c>
-      <c r="E118" s="34">
+      <c r="E118" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>2</v>
       </c>
-      <c r="F118" s="34">
+      <c r="F118" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>1</v>
       </c>
@@ -18474,15 +18508,15 @@
       <c r="C119" s="2">
         <v>43994</v>
       </c>
-      <c r="D119" s="35" t="str">
+      <c r="D119" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>пятница</v>
       </c>
-      <c r="E119" s="34">
+      <c r="E119" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>5</v>
       </c>
-      <c r="F119" s="34">
+      <c r="F119" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>2</v>
       </c>
@@ -18506,15 +18540,15 @@
       <c r="C120" s="2">
         <v>43959</v>
       </c>
-      <c r="D120" s="35" t="str">
+      <c r="D120" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>пятница</v>
       </c>
-      <c r="E120" s="34">
+      <c r="E120" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>5</v>
       </c>
-      <c r="F120" s="34">
+      <c r="F120" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>2</v>
       </c>
@@ -18538,15 +18572,15 @@
       <c r="C121" s="2">
         <v>43867</v>
       </c>
-      <c r="D121" s="35" t="str">
+      <c r="D121" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>четверг</v>
       </c>
-      <c r="E121" s="34">
+      <c r="E121" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>4</v>
       </c>
-      <c r="F121" s="34">
+      <c r="F121" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>1</v>
       </c>
@@ -18570,15 +18604,15 @@
       <c r="C122" s="2">
         <v>43910</v>
       </c>
-      <c r="D122" s="35" t="str">
+      <c r="D122" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>пятница</v>
       </c>
-      <c r="E122" s="34">
+      <c r="E122" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>5</v>
       </c>
-      <c r="F122" s="34">
+      <c r="F122" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>1</v>
       </c>
@@ -18602,15 +18636,15 @@
       <c r="C123" s="2">
         <v>43872</v>
       </c>
-      <c r="D123" s="35" t="str">
+      <c r="D123" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>вторник</v>
       </c>
-      <c r="E123" s="34">
+      <c r="E123" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>2</v>
       </c>
-      <c r="F123" s="34">
+      <c r="F123" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>1</v>
       </c>
@@ -18634,15 +18668,15 @@
       <c r="C124" s="2">
         <v>43947</v>
       </c>
-      <c r="D124" s="35" t="str">
+      <c r="D124" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>воскресенье</v>
       </c>
-      <c r="E124" s="34">
+      <c r="E124" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>7</v>
       </c>
-      <c r="F124" s="34">
+      <c r="F124" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>2</v>
       </c>
@@ -18666,15 +18700,15 @@
       <c r="C125" s="2">
         <v>43835</v>
       </c>
-      <c r="D125" s="35" t="str">
+      <c r="D125" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>воскресенье</v>
       </c>
-      <c r="E125" s="34">
+      <c r="E125" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>7</v>
       </c>
-      <c r="F125" s="34">
+      <c r="F125" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>1</v>
       </c>
@@ -18698,15 +18732,15 @@
       <c r="C126" s="2">
         <v>43842</v>
       </c>
-      <c r="D126" s="35" t="str">
+      <c r="D126" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>воскресенье</v>
       </c>
-      <c r="E126" s="34">
+      <c r="E126" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>7</v>
       </c>
-      <c r="F126" s="34">
+      <c r="F126" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>1</v>
       </c>
@@ -18730,15 +18764,15 @@
       <c r="C127" s="2">
         <v>43835</v>
       </c>
-      <c r="D127" s="35" t="str">
+      <c r="D127" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>воскресенье</v>
       </c>
-      <c r="E127" s="34">
+      <c r="E127" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>7</v>
       </c>
-      <c r="F127" s="34">
+      <c r="F127" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>1</v>
       </c>
@@ -18762,15 +18796,15 @@
       <c r="C128" s="2">
         <v>43996</v>
       </c>
-      <c r="D128" s="35" t="str">
+      <c r="D128" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>воскресенье</v>
       </c>
-      <c r="E128" s="34">
+      <c r="E128" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>7</v>
       </c>
-      <c r="F128" s="34">
+      <c r="F128" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>2</v>
       </c>
@@ -18794,15 +18828,15 @@
       <c r="C129" s="2">
         <v>43868</v>
       </c>
-      <c r="D129" s="35" t="str">
+      <c r="D129" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>пятница</v>
       </c>
-      <c r="E129" s="34">
+      <c r="E129" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>5</v>
       </c>
-      <c r="F129" s="34">
+      <c r="F129" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>1</v>
       </c>
@@ -18826,15 +18860,15 @@
       <c r="C130" s="2">
         <v>43870</v>
       </c>
-      <c r="D130" s="35" t="str">
+      <c r="D130" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>воскресенье</v>
       </c>
-      <c r="E130" s="34">
+      <c r="E130" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>7</v>
       </c>
-      <c r="F130" s="34">
+      <c r="F130" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>1</v>
       </c>
@@ -18858,15 +18892,15 @@
       <c r="C131" s="2">
         <v>43928</v>
       </c>
-      <c r="D131" s="35" t="str">
+      <c r="D131" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>вторник</v>
       </c>
-      <c r="E131" s="34">
+      <c r="E131" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>2</v>
       </c>
-      <c r="F131" s="34">
+      <c r="F131" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>2</v>
       </c>
@@ -18890,15 +18924,15 @@
       <c r="C132" s="2">
         <v>43972</v>
       </c>
-      <c r="D132" s="35" t="str">
+      <c r="D132" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>четверг</v>
       </c>
-      <c r="E132" s="34">
+      <c r="E132" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>4</v>
       </c>
-      <c r="F132" s="34">
+      <c r="F132" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>2</v>
       </c>
@@ -18922,15 +18956,15 @@
       <c r="C133" s="2">
         <v>43870</v>
       </c>
-      <c r="D133" s="35" t="str">
+      <c r="D133" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>воскресенье</v>
       </c>
-      <c r="E133" s="34">
+      <c r="E133" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>7</v>
       </c>
-      <c r="F133" s="34">
+      <c r="F133" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>1</v>
       </c>
@@ -18954,15 +18988,15 @@
       <c r="C134" s="2">
         <v>43882</v>
       </c>
-      <c r="D134" s="35" t="str">
+      <c r="D134" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>пятница</v>
       </c>
-      <c r="E134" s="34">
+      <c r="E134" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>5</v>
       </c>
-      <c r="F134" s="34">
+      <c r="F134" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>1</v>
       </c>
@@ -18986,15 +19020,15 @@
       <c r="C135" s="2">
         <v>43871</v>
       </c>
-      <c r="D135" s="35" t="str">
+      <c r="D135" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>понедельник</v>
       </c>
-      <c r="E135" s="34">
+      <c r="E135" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>1</v>
       </c>
-      <c r="F135" s="34">
+      <c r="F135" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>1</v>
       </c>
@@ -19018,15 +19052,15 @@
       <c r="C136" s="2">
         <v>43922</v>
       </c>
-      <c r="D136" s="35" t="str">
+      <c r="D136" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>среда</v>
       </c>
-      <c r="E136" s="34">
+      <c r="E136" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>3</v>
       </c>
-      <c r="F136" s="34">
+      <c r="F136" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>2</v>
       </c>
@@ -19050,15 +19084,15 @@
       <c r="C137" s="2">
         <v>43907</v>
       </c>
-      <c r="D137" s="35" t="str">
+      <c r="D137" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>вторник</v>
       </c>
-      <c r="E137" s="34">
+      <c r="E137" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>2</v>
       </c>
-      <c r="F137" s="34">
+      <c r="F137" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>1</v>
       </c>
@@ -19082,15 +19116,15 @@
       <c r="C138" s="2">
         <v>43902</v>
       </c>
-      <c r="D138" s="35" t="str">
+      <c r="D138" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>четверг</v>
       </c>
-      <c r="E138" s="34">
+      <c r="E138" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>4</v>
       </c>
-      <c r="F138" s="34">
+      <c r="F138" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>1</v>
       </c>
@@ -19114,15 +19148,15 @@
       <c r="C139" s="2">
         <v>43966</v>
       </c>
-      <c r="D139" s="35" t="str">
+      <c r="D139" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>пятница</v>
       </c>
-      <c r="E139" s="34">
+      <c r="E139" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>5</v>
       </c>
-      <c r="F139" s="34">
+      <c r="F139" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>2</v>
       </c>
@@ -19146,15 +19180,15 @@
       <c r="C140" s="2">
         <v>43903</v>
       </c>
-      <c r="D140" s="35" t="str">
+      <c r="D140" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>пятница</v>
       </c>
-      <c r="E140" s="34">
+      <c r="E140" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>5</v>
       </c>
-      <c r="F140" s="34">
+      <c r="F140" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>1</v>
       </c>
@@ -19178,15 +19212,15 @@
       <c r="C141" s="2">
         <v>43917</v>
       </c>
-      <c r="D141" s="35" t="str">
+      <c r="D141" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>пятница</v>
       </c>
-      <c r="E141" s="34">
+      <c r="E141" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>5</v>
       </c>
-      <c r="F141" s="34">
+      <c r="F141" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>1</v>
       </c>
@@ -19210,15 +19244,15 @@
       <c r="C142" s="2">
         <v>43972</v>
       </c>
-      <c r="D142" s="35" t="str">
+      <c r="D142" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>четверг</v>
       </c>
-      <c r="E142" s="34">
+      <c r="E142" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>4</v>
       </c>
-      <c r="F142" s="34">
+      <c r="F142" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>2</v>
       </c>
@@ -19242,15 +19276,15 @@
       <c r="C143" s="2">
         <v>44008</v>
       </c>
-      <c r="D143" s="35" t="str">
+      <c r="D143" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>пятница</v>
       </c>
-      <c r="E143" s="34">
+      <c r="E143" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>5</v>
       </c>
-      <c r="F143" s="34">
+      <c r="F143" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>2</v>
       </c>
@@ -19274,15 +19308,15 @@
       <c r="C144" s="2">
         <v>44004</v>
       </c>
-      <c r="D144" s="35" t="str">
+      <c r="D144" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>понедельник</v>
       </c>
-      <c r="E144" s="34">
+      <c r="E144" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>1</v>
       </c>
-      <c r="F144" s="34">
+      <c r="F144" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>2</v>
       </c>
@@ -19306,15 +19340,15 @@
       <c r="C145" s="2">
         <v>43900</v>
       </c>
-      <c r="D145" s="35" t="str">
+      <c r="D145" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>вторник</v>
       </c>
-      <c r="E145" s="34">
+      <c r="E145" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>2</v>
       </c>
-      <c r="F145" s="34">
+      <c r="F145" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>1</v>
       </c>
@@ -19338,15 +19372,15 @@
       <c r="C146" s="2">
         <v>43909</v>
       </c>
-      <c r="D146" s="35" t="str">
+      <c r="D146" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>четверг</v>
       </c>
-      <c r="E146" s="34">
+      <c r="E146" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>4</v>
       </c>
-      <c r="F146" s="34">
+      <c r="F146" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>1</v>
       </c>
@@ -19370,15 +19404,15 @@
       <c r="C147" s="2">
         <v>43906</v>
       </c>
-      <c r="D147" s="35" t="str">
+      <c r="D147" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>понедельник</v>
       </c>
-      <c r="E147" s="34">
+      <c r="E147" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>1</v>
       </c>
-      <c r="F147" s="34">
+      <c r="F147" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>1</v>
       </c>
@@ -19402,15 +19436,15 @@
       <c r="C148" s="2">
         <v>43903</v>
       </c>
-      <c r="D148" s="35" t="str">
+      <c r="D148" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>пятница</v>
       </c>
-      <c r="E148" s="34">
+      <c r="E148" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>5</v>
       </c>
-      <c r="F148" s="34">
+      <c r="F148" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>1</v>
       </c>
@@ -19434,15 +19468,15 @@
       <c r="C149" s="2">
         <v>43909</v>
       </c>
-      <c r="D149" s="35" t="str">
+      <c r="D149" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>четверг</v>
       </c>
-      <c r="E149" s="34">
+      <c r="E149" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>4</v>
       </c>
-      <c r="F149" s="34">
+      <c r="F149" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>1</v>
       </c>
@@ -19466,15 +19500,15 @@
       <c r="C150" s="2">
         <v>43898</v>
       </c>
-      <c r="D150" s="35" t="str">
+      <c r="D150" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>воскресенье</v>
       </c>
-      <c r="E150" s="34">
+      <c r="E150" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>7</v>
       </c>
-      <c r="F150" s="34">
+      <c r="F150" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>1</v>
       </c>
@@ -19498,15 +19532,15 @@
       <c r="C151" s="2">
         <v>43837</v>
       </c>
-      <c r="D151" s="35" t="str">
+      <c r="D151" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>вторник</v>
       </c>
-      <c r="E151" s="34">
+      <c r="E151" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>2</v>
       </c>
-      <c r="F151" s="34">
+      <c r="F151" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>1</v>
       </c>
@@ -19530,15 +19564,15 @@
       <c r="C152" s="2">
         <v>43899</v>
       </c>
-      <c r="D152" s="35" t="str">
+      <c r="D152" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>понедельник</v>
       </c>
-      <c r="E152" s="34">
+      <c r="E152" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>1</v>
       </c>
-      <c r="F152" s="34">
+      <c r="F152" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>1</v>
       </c>
@@ -19562,15 +19596,15 @@
       <c r="C153" s="2">
         <v>43995</v>
       </c>
-      <c r="D153" s="35" t="str">
+      <c r="D153" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>суббота</v>
       </c>
-      <c r="E153" s="34">
+      <c r="E153" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>6</v>
       </c>
-      <c r="F153" s="34">
+      <c r="F153" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>2</v>
       </c>
@@ -19594,15 +19628,15 @@
       <c r="C154" s="2">
         <v>43922</v>
       </c>
-      <c r="D154" s="35" t="str">
+      <c r="D154" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>среда</v>
       </c>
-      <c r="E154" s="34">
+      <c r="E154" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>3</v>
       </c>
-      <c r="F154" s="34">
+      <c r="F154" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>2</v>
       </c>
@@ -19626,15 +19660,15 @@
       <c r="C155" s="2">
         <v>44001</v>
       </c>
-      <c r="D155" s="35" t="str">
+      <c r="D155" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>пятница</v>
       </c>
-      <c r="E155" s="34">
+      <c r="E155" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>5</v>
       </c>
-      <c r="F155" s="34">
+      <c r="F155" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>2</v>
       </c>
@@ -19658,15 +19692,15 @@
       <c r="C156" s="2">
         <v>43890</v>
       </c>
-      <c r="D156" s="35" t="str">
+      <c r="D156" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>суббота</v>
       </c>
-      <c r="E156" s="34">
+      <c r="E156" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>6</v>
       </c>
-      <c r="F156" s="34">
+      <c r="F156" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>1</v>
       </c>
@@ -19690,15 +19724,15 @@
       <c r="C157" s="2">
         <v>43967</v>
       </c>
-      <c r="D157" s="35" t="str">
+      <c r="D157" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>суббота</v>
       </c>
-      <c r="E157" s="34">
+      <c r="E157" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>6</v>
       </c>
-      <c r="F157" s="34">
+      <c r="F157" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>2</v>
       </c>
@@ -19722,15 +19756,15 @@
       <c r="C158" s="2">
         <v>43832</v>
       </c>
-      <c r="D158" s="35" t="str">
+      <c r="D158" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>четверг</v>
       </c>
-      <c r="E158" s="34">
+      <c r="E158" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>4</v>
       </c>
-      <c r="F158" s="34">
+      <c r="F158" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>1</v>
       </c>
@@ -19754,15 +19788,15 @@
       <c r="C159" s="2">
         <v>43868</v>
       </c>
-      <c r="D159" s="35" t="str">
+      <c r="D159" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>пятница</v>
       </c>
-      <c r="E159" s="34">
+      <c r="E159" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>5</v>
       </c>
-      <c r="F159" s="34">
+      <c r="F159" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>1</v>
       </c>
@@ -19786,15 +19820,15 @@
       <c r="C160" s="2">
         <v>44166</v>
       </c>
-      <c r="D160" s="35" t="str">
+      <c r="D160" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>вторник</v>
       </c>
-      <c r="E160" s="34">
+      <c r="E160" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>2</v>
       </c>
-      <c r="F160" s="34">
+      <c r="F160" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>4</v>
       </c>
@@ -19818,15 +19852,15 @@
       <c r="C161" s="2">
         <v>43855</v>
       </c>
-      <c r="D161" s="35" t="str">
+      <c r="D161" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>суббота</v>
       </c>
-      <c r="E161" s="34">
+      <c r="E161" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>6</v>
       </c>
-      <c r="F161" s="34">
+      <c r="F161" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>1</v>
       </c>
@@ -19850,15 +19884,15 @@
       <c r="C162" s="2">
         <v>43997</v>
       </c>
-      <c r="D162" s="35" t="str">
+      <c r="D162" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>понедельник</v>
       </c>
-      <c r="E162" s="34">
+      <c r="E162" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>1</v>
       </c>
-      <c r="F162" s="34">
+      <c r="F162" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>2</v>
       </c>
@@ -19882,15 +19916,15 @@
       <c r="C163" s="2">
         <v>43833</v>
       </c>
-      <c r="D163" s="35" t="str">
+      <c r="D163" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>пятница</v>
       </c>
-      <c r="E163" s="34">
+      <c r="E163" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>5</v>
       </c>
-      <c r="F163" s="34">
+      <c r="F163" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>1</v>
       </c>
@@ -19914,15 +19948,15 @@
       <c r="C164" s="2">
         <v>43999</v>
       </c>
-      <c r="D164" s="35" t="str">
+      <c r="D164" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>среда</v>
       </c>
-      <c r="E164" s="34">
+      <c r="E164" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>3</v>
       </c>
-      <c r="F164" s="34">
+      <c r="F164" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>2</v>
       </c>
@@ -19946,15 +19980,15 @@
       <c r="C165" s="2">
         <v>43862</v>
       </c>
-      <c r="D165" s="35" t="str">
+      <c r="D165" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>суббота</v>
       </c>
-      <c r="E165" s="34">
+      <c r="E165" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>6</v>
       </c>
-      <c r="F165" s="34">
+      <c r="F165" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>1</v>
       </c>
@@ -19978,15 +20012,15 @@
       <c r="C166" s="2">
         <v>43969</v>
       </c>
-      <c r="D166" s="35" t="str">
+      <c r="D166" s="33" t="str">
         <f>TEXT(Таблица4[[#This Row],[Дата]],"ДДДД")</f>
         <v>понедельник</v>
       </c>
-      <c r="E166" s="34">
+      <c r="E166" s="32">
         <f>WEEKDAY(Таблица4[[#This Row],[Дата]],2)</f>
         <v>1</v>
       </c>
-      <c r="F166" s="34">
+      <c r="F166" s="32">
         <f>ROUNDUP(MONTH(Таблица4[[#This Row],[Дата]])/3,0)</f>
         <v>2</v>
       </c>
@@ -20023,72 +20057,72 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
-        <v>216</v>
+      <c r="A3" s="28" t="s">
+        <v>215</v>
       </c>
       <c r="B3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="30" t="s">
-        <v>224</v>
+      <c r="A4" s="29" t="s">
+        <v>223</v>
       </c>
       <c r="B4" s="22">
         <v>4.7241379310344831</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="30" t="s">
-        <v>225</v>
+      <c r="A5" s="29" t="s">
+        <v>224</v>
       </c>
       <c r="B5" s="22">
         <v>4.083333333333333</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="30" t="s">
-        <v>226</v>
+      <c r="A6" s="29" t="s">
+        <v>225</v>
       </c>
       <c r="B6" s="22">
         <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="30" t="s">
-        <v>227</v>
+      <c r="A7" s="29" t="s">
+        <v>226</v>
       </c>
       <c r="B7" s="22">
         <v>4.1500000000000004</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="30" t="s">
-        <v>228</v>
+      <c r="A8" s="29" t="s">
+        <v>227</v>
       </c>
       <c r="B8" s="22">
         <v>4.0357142857142856</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="30" t="s">
-        <v>229</v>
+      <c r="A9" s="29" t="s">
+        <v>228</v>
       </c>
       <c r="B9" s="22">
         <v>4.0526315789473681</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="30" t="s">
-        <v>230</v>
+      <c r="A10" s="29" t="s">
+        <v>229</v>
       </c>
       <c r="B10" s="22">
         <v>4.4400000000000004</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="30" t="s">
-        <v>217</v>
+      <c r="A11" s="29" t="s">
+        <v>216</v>
       </c>
       <c r="B11" s="22">
         <v>4.2484848484848481</v>
@@ -20104,7 +20138,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20115,14 +20149,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
-        <v>212</v>
-      </c>
-      <c r="B1" s="25" t="s">
+      <c r="A1" s="24" t="s">
+        <v>211</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>231</v>
+      </c>
+      <c r="C1" s="24" t="s">
         <v>232</v>
-      </c>
-      <c r="C1" s="25" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -20132,11 +20166,11 @@
       </c>
       <c r="B2" s="2">
         <f ca="1">TODAY()</f>
-        <v>45267</v>
+        <v>45268</v>
       </c>
       <c r="C2">
         <f ca="1">WEEKDAY(TODAY(),2)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
